--- a/migforecasting/Hybridization/exp/test-4.xlsx
+++ b/migforecasting/Hybridization/exp/test-4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="10">
   <si>
     <t>test input (MAPE)</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>test input (MAE)</t>
+  </si>
+  <si>
+    <t>Hybrid model-KZ (citiesdataset-NYDcor-4.csv) - non-synth</t>
+  </si>
+  <si>
+    <t>Hybrid model-KZ (citiesdataset-NYDcor-4.csv) - synth</t>
   </si>
 </sst>
 </file>
@@ -388,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AD108"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH97" sqref="AH97"/>
+    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH84" sqref="AH84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4955,14 +4961,2399 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C3:O108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U66" sqref="U66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>631.93844448889297</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>430.07272069188872</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>556.93590572255846</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <f>C6+1</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>612.8443823103587</v>
+      </c>
+      <c r="I7" s="2">
+        <f>I6+1</f>
+        <v>2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>423.03665528441309</v>
+      </c>
+      <c r="N7" s="2">
+        <f>N6+1</f>
+        <v>2</v>
+      </c>
+      <c r="O7" s="3">
+        <v>517.41628490875109</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:C71" si="0">C7+1</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>683.37854216672315</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" ref="I8:I71" si="1">I7+1</f>
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>455.9829391930507</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" ref="N8:N71" si="2">N7+1</f>
+        <v>3</v>
+      </c>
+      <c r="O8" s="3">
+        <v>461.58674253247949</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>615.4559013887291</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>352.04807644683189</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
+        <v>548.57339300681974</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>661.57610055434793</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>377.92065174115118</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
+        <v>483.42449879986259</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>674.47370728083115</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J11" s="3">
+        <v>444.23433120928081</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O11" s="3">
+        <v>462.79265158875268</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>548.23537685259168</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J12" s="3">
+        <v>411.66427506000662</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O12" s="3">
+        <v>518.57942088619609</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>704.68394335543019</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J13" s="3">
+        <v>466.10909584904948</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="O13" s="3">
+        <v>544.62248714138741</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>702.90565931344474</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J14" s="3">
+        <v>417.29583419057411</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="O14" s="3">
+        <v>461.19460576446829</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>615.05605569207842</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="3">
+        <v>480.8304350020951</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="O15" s="3">
+        <v>508.33934678248909</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>667.37086333676154</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="J16" s="3">
+        <v>429.40552429801511</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="O16" s="3">
+        <v>512.11807678020307</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>707.06897983578995</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J17" s="3">
+        <v>487.59229073798889</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="O17" s="3">
+        <v>447.42857717072388</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
+        <v>663.1831702194529</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J18" s="3">
+        <v>408.51169571760539</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="O18" s="3">
+        <v>621.52393111593642</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D19" s="3">
+        <v>586.4359219148846</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J19" s="3">
+        <v>517.7840792281022</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="O19" s="3">
+        <v>523.41101687811897</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D20" s="3">
+        <v>564.20895621404247</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J20" s="3">
+        <v>411.29543357336041</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="O20" s="3">
+        <v>445.88829899607498</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D21" s="3">
+        <v>680.89242689640605</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J21" s="3">
+        <v>445.65006605516771</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="O21" s="3">
+        <v>518.00896526269628</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D22" s="3">
+        <v>673.85630524440819</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="J22" s="3">
+        <v>436.699919419362</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O22" s="3">
+        <v>450.12622352078301</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D23" s="3">
+        <v>626.86025826761067</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J23" s="3">
+        <v>453.12367689640689</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="O23" s="3">
+        <v>551.38458199984723</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D24" s="3">
+        <v>571.7426509220096</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="J24" s="3">
+        <v>505.53328494685059</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="O24" s="3">
+        <v>541.11366389492105</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D25" s="3">
+        <v>707.61095406141555</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J25" s="3">
+        <v>425.06780070103241</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="O25" s="3">
+        <v>534.62636148893159</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D26" s="3">
+        <v>615.81746866308413</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="J26" s="3">
+        <v>444.98870609021958</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="O26" s="3">
+        <v>434.72494251723958</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D27" s="3">
+        <v>539.00364303539368</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J27" s="3">
+        <v>409.08719415552241</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="O27" s="3">
+        <v>465.42379957709409</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D28" s="3">
+        <v>545.24698970358429</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="J28" s="3">
+        <v>445.23738384386752</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="O28" s="3">
+        <v>497.40902322170132</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D29" s="3">
+        <v>640.4768687373786</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="J29" s="3">
+        <v>449.38442517240043</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
+        <v>461.07035956490262</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D30" s="3">
+        <v>576.90834871604272</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J30" s="3">
+        <v>457.84652588867249</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="O30" s="3">
+        <v>419.767842658208</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D31" s="3">
+        <v>526.46703308949532</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="J31" s="3">
+        <v>436.91184621099552</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="O31" s="3">
+        <v>518.64386167942985</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D32" s="3">
+        <v>448.36962700499021</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="J32" s="3">
+        <v>458.51934840172191</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="O32" s="3">
+        <v>521.02554934849672</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D33" s="3">
+        <v>640.06556949365552</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J33" s="3">
+        <v>520.59907341791416</v>
+      </c>
+      <c r="N33" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="O33" s="3">
+        <v>418.35238779670021</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D34" s="3">
+        <v>670.04271873928337</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="J34" s="3">
+        <v>434.14997275879142</v>
+      </c>
+      <c r="N34" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="O34" s="3">
+        <v>494.68877209776338</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D35" s="3">
+        <v>695.16442145768951</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J35" s="3">
+        <v>495.7654067131478</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="O35" s="3">
+        <v>504.70239108279031</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D36" s="3">
+        <v>715.15056811254533</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="J36" s="3">
+        <v>462.59606035927891</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="O36" s="3">
+        <v>554.27898445536596</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D37" s="3">
+        <v>720.64686954699471</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="J37" s="3">
+        <v>387.56195408046591</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="O37" s="3">
+        <v>505.60062197584477</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D38" s="3">
+        <v>589.09323389339681</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="J38" s="3">
+        <v>471.43802282165569</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="O38" s="3">
+        <v>515.51553153693749</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D39" s="3">
+        <v>657.32607921857652</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="J39" s="3">
+        <v>419.51543485922173</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="O39" s="3">
+        <v>422.46836190802719</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D40" s="3">
+        <v>679.52828809006655</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J40" s="3">
+        <v>414.35183478111782</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="O40" s="3">
+        <v>569.41701689716888</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D41" s="3">
+        <v>672.79925077151586</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="J41" s="3">
+        <v>402.03200761039352</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="O41" s="3">
+        <v>528.04636229854827</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D42" s="3">
+        <v>702.60497947384385</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="J42" s="3">
+        <v>426.93381662666189</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="O42" s="3">
+        <v>527.32177815559862</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D43" s="3">
+        <v>737.14053301329591</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="J43" s="3">
+        <v>369.06831185468792</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="O43" s="3">
+        <v>444.01380567302903</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D44" s="3">
+        <v>595.72421952985007</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="J44" s="3">
+        <v>431.40742508667631</v>
+      </c>
+      <c r="N44" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="O44" s="3">
+        <v>543.86772459709675</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D45" s="3">
+        <v>716.15331204518498</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J45" s="3">
+        <v>502.96395973825571</v>
+      </c>
+      <c r="N45" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="O45" s="3">
+        <v>502.10623690326491</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D46" s="3">
+        <v>712.97552244065912</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="J46" s="3">
+        <v>414.90330237741432</v>
+      </c>
+      <c r="N46" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="O46" s="3">
+        <v>543.67853916638057</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D47" s="3">
+        <v>671.85655160589704</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="J47" s="3">
+        <v>429.61061206995049</v>
+      </c>
+      <c r="N47" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="O47" s="3">
+        <v>535.72977592677239</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D48" s="3">
+        <v>719.6615732274156</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="J48" s="3">
+        <v>478.43329323351202</v>
+      </c>
+      <c r="N48" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="O48" s="3">
+        <v>636.31500038099557</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D49" s="3">
+        <v>701.4176171086209</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="J49" s="3">
+        <v>411.96718358288558</v>
+      </c>
+      <c r="N49" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="O49" s="3">
+        <v>463.35596730102452</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D50" s="3">
+        <v>627.54524945707999</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J50" s="3">
+        <v>469.38355874004611</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="O50" s="3">
+        <v>462.74279641482798</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D51" s="3">
+        <v>643.0341393302084</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="J51" s="3">
+        <v>513.41369189812167</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="O51" s="3">
+        <v>459.3859027698399</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D52" s="3">
+        <v>724.04721396730963</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="J52" s="3">
+        <v>418.29663947308211</v>
+      </c>
+      <c r="N52" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="O52" s="3">
+        <v>462.87132767554323</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D53" s="3">
+        <v>655.69785208785709</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="J53" s="3">
+        <v>451.71894645102282</v>
+      </c>
+      <c r="N53" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="O53" s="3">
+        <v>419.55648240751282</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D54" s="3">
+        <v>732.12783279993823</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="J54" s="3">
+        <v>484.3316855735892</v>
+      </c>
+      <c r="N54" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="O54" s="3">
+        <v>516.82326537318534</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C55" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D55" s="3">
+        <v>698.64593586886031</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J55" s="3">
+        <v>371.49122628300358</v>
+      </c>
+      <c r="N55" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="O55" s="3">
+        <v>473.80054777688821</v>
+      </c>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C56" s="2">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="D56" s="3">
+        <v>662.82366846687148</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="J56" s="3">
+        <v>541.3013684421071</v>
+      </c>
+      <c r="N56" s="2">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="O56" s="3">
+        <v>554.24581742675332</v>
+      </c>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C57" s="2">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D57" s="3">
+        <v>709.59265497009085</v>
+      </c>
+      <c r="I57" s="2">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="J57" s="3">
+        <v>555.88025979159499</v>
+      </c>
+      <c r="N57" s="2">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="O57" s="3">
+        <v>494.97552067855349</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C58" s="2">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="D58" s="3">
+        <v>591.93472854040363</v>
+      </c>
+      <c r="I58" s="2">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="J58" s="3">
+        <v>519.96773759858206</v>
+      </c>
+      <c r="N58" s="2">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="O58" s="3">
+        <v>429.32259277250711</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C59" s="2">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D59" s="3">
+        <v>683.00254490989346</v>
+      </c>
+      <c r="I59" s="2">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="J59" s="3">
+        <v>553.28334257248389</v>
+      </c>
+      <c r="N59" s="2">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="O59" s="3">
+        <v>474.82154189050152</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C60" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D60" s="3">
+        <v>605.76398159789608</v>
+      </c>
+      <c r="I60" s="2">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="J60" s="3">
+        <v>529.50752271688145</v>
+      </c>
+      <c r="N60" s="2">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="O60" s="3">
+        <v>358.30765511296482</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C61" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D61" s="3">
+        <v>631.61605335847833</v>
+      </c>
+      <c r="I61" s="2">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="J61" s="3">
+        <v>603.23190988493855</v>
+      </c>
+      <c r="N61" s="2">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="O61" s="3">
+        <v>504.3761660380232</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C62" s="2">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="D62" s="3">
+        <v>536.89878243227713</v>
+      </c>
+      <c r="I62" s="2">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="J62" s="3">
+        <v>549.46397821655762</v>
+      </c>
+      <c r="N62" s="2">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="O62" s="3">
+        <v>536.34678534689658</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C63" s="2">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="D63" s="3">
+        <v>719.67908646702381</v>
+      </c>
+      <c r="I63" s="2">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="J63" s="3">
+        <v>485.03854211909868</v>
+      </c>
+      <c r="N63" s="2">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="O63" s="3">
+        <v>443.62140058863849</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C64" s="2">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D64" s="3">
+        <v>700.70023840819795</v>
+      </c>
+      <c r="I64" s="2">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="J64" s="3">
+        <v>510.47556273097831</v>
+      </c>
+      <c r="N64" s="2">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="O64" s="3">
+        <v>533.25201199184619</v>
+      </c>
+    </row>
+    <row r="65" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C65" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D65" s="3">
+        <v>547.31272288261414</v>
+      </c>
+      <c r="I65" s="2">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="J65" s="3">
+        <v>493.64634729683348</v>
+      </c>
+      <c r="N65" s="2">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="O65" s="3">
+        <v>490.8228805673026</v>
+      </c>
+    </row>
+    <row r="66" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C66" s="2">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D66" s="3">
+        <v>592.0511680858757</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="J66" s="3">
+        <v>518.35575065721764</v>
+      </c>
+      <c r="N66" s="2">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="O66" s="3">
+        <v>552.96093339238735</v>
+      </c>
+    </row>
+    <row r="67" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C67" s="2">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="D67" s="3">
+        <v>643.89814231150137</v>
+      </c>
+      <c r="I67" s="2">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="J67" s="3">
+        <v>516.66748137882371</v>
+      </c>
+      <c r="N67" s="2">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="O67" s="3">
+        <v>508.43613798719798</v>
+      </c>
+    </row>
+    <row r="68" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C68" s="2">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D68" s="3">
+        <v>682.54901698289234</v>
+      </c>
+      <c r="I68" s="2">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="J68" s="3">
+        <v>490.41117246732921</v>
+      </c>
+      <c r="N68" s="2">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="O68" s="3">
+        <v>504.69717443898332</v>
+      </c>
+    </row>
+    <row r="69" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C69" s="2">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D69" s="3">
+        <v>697.01019206956903</v>
+      </c>
+      <c r="I69" s="2">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="J69" s="3">
+        <v>558.10026755438662</v>
+      </c>
+      <c r="N69" s="2">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="O69" s="3">
+        <v>463.48680153922322</v>
+      </c>
+    </row>
+    <row r="70" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C70" s="2">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D70" s="3">
+        <v>628.49063954928124</v>
+      </c>
+      <c r="I70" s="2">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="J70" s="3">
+        <v>456.47044252676432</v>
+      </c>
+      <c r="N70" s="2">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="O70" s="3">
+        <v>547.34975706747412</v>
+      </c>
+    </row>
+    <row r="71" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C71" s="2">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="D71" s="3">
+        <v>637.42032913285209</v>
+      </c>
+      <c r="I71" s="2">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="J71" s="3">
+        <v>484.83592410561153</v>
+      </c>
+      <c r="N71" s="2">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="O71" s="3">
+        <v>423.69179253819448</v>
+      </c>
+    </row>
+    <row r="72" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C72" s="2">
+        <f t="shared" ref="C72:C105" si="3">C71+1</f>
+        <v>67</v>
+      </c>
+      <c r="D72" s="3">
+        <v>589.13995828094539</v>
+      </c>
+      <c r="I72" s="2">
+        <f t="shared" ref="I72:I105" si="4">I71+1</f>
+        <v>67</v>
+      </c>
+      <c r="J72" s="3">
+        <v>525.48951418257275</v>
+      </c>
+      <c r="N72" s="2">
+        <f t="shared" ref="N72:N105" si="5">N71+1</f>
+        <v>67</v>
+      </c>
+      <c r="O72" s="3">
+        <v>463.33935044957491</v>
+      </c>
+    </row>
+    <row r="73" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C73" s="2">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="D73" s="3">
+        <v>608.07559973520711</v>
+      </c>
+      <c r="I73" s="2">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="J73" s="3">
+        <v>450.73154360498302</v>
+      </c>
+      <c r="N73" s="2">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="O73" s="3">
+        <v>492.83281379776707</v>
+      </c>
+    </row>
+    <row r="74" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C74" s="2">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="D74" s="3">
+        <v>670.91919252676416</v>
+      </c>
+      <c r="I74" s="2">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="J74" s="3">
+        <v>501.19451194422157</v>
+      </c>
+      <c r="N74" s="2">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="O74" s="3">
+        <v>493.21154989141581</v>
+      </c>
+    </row>
+    <row r="75" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C75" s="2">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="D75" s="3">
+        <v>584.93805106297748</v>
+      </c>
+      <c r="I75" s="2">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="J75" s="3">
+        <v>524.52931554082295</v>
+      </c>
+      <c r="N75" s="2">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="O75" s="3">
+        <v>450.48990289366338</v>
+      </c>
+    </row>
+    <row r="76" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C76" s="2">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="D76" s="3">
+        <v>674.22932887568015</v>
+      </c>
+      <c r="I76" s="2">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="J76" s="3">
+        <v>559.26159442031428</v>
+      </c>
+      <c r="N76" s="2">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="O76" s="3">
+        <v>471.18343548786498</v>
+      </c>
+    </row>
+    <row r="77" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C77" s="2">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="D77" s="3">
+        <v>740.34852649826553</v>
+      </c>
+      <c r="I77" s="2">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="J77" s="3">
+        <v>495.8107172248254</v>
+      </c>
+      <c r="N77" s="2">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="O77" s="3">
+        <v>586.87907994246916</v>
+      </c>
+    </row>
+    <row r="78" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C78" s="2">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="D78" s="3">
+        <v>645.35519778450782</v>
+      </c>
+      <c r="I78" s="2">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="J78" s="3">
+        <v>577.76400550539063</v>
+      </c>
+      <c r="N78" s="2">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="O78" s="3">
+        <v>477.58249476130578</v>
+      </c>
+    </row>
+    <row r="79" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C79" s="2">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="D79" s="3">
+        <v>557.92731288337632</v>
+      </c>
+      <c r="I79" s="2">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="J79" s="3">
+        <v>500.11302801272478</v>
+      </c>
+      <c r="N79" s="2">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="O79" s="3">
+        <v>526.80959700156188</v>
+      </c>
+    </row>
+    <row r="80" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C80" s="2">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="D80" s="3">
+        <v>595.21362665256879</v>
+      </c>
+      <c r="I80" s="2">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="J80" s="3">
+        <v>494.69918119213571</v>
+      </c>
+      <c r="N80" s="2">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="O80" s="3">
+        <v>464.42791347582568</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C81" s="2">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D81" s="3">
+        <v>693.94877876519138</v>
+      </c>
+      <c r="I81" s="2">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="J81" s="3">
+        <v>452.4043613079586</v>
+      </c>
+      <c r="N81" s="2">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="O81" s="3">
+        <v>594.13315026479165</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C82" s="2">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="D82" s="3">
+        <v>619.53063816817064</v>
+      </c>
+      <c r="I82" s="2">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="J82" s="3">
+        <v>515.7476279670052</v>
+      </c>
+      <c r="N82" s="2">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="O82" s="3">
+        <v>575.46546005257721</v>
+      </c>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C83" s="2">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="D83" s="3">
+        <v>745.39912637634677</v>
+      </c>
+      <c r="I83" s="2">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="J83" s="3">
+        <v>548.08882329409028</v>
+      </c>
+      <c r="N83" s="2">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="O83" s="3">
+        <v>409.48624919038332</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C84" s="2">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="D84" s="3">
+        <v>664.9532364174944</v>
+      </c>
+      <c r="I84" s="2">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="J84" s="3">
+        <v>473.13686087933809</v>
+      </c>
+      <c r="N84" s="2">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="O84" s="3">
+        <v>486.55303439440638</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C85" s="2">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="D85" s="3">
+        <v>727.83003405150953</v>
+      </c>
+      <c r="I85" s="2">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="J85" s="3">
+        <v>476.08216586657471</v>
+      </c>
+      <c r="N85" s="2">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="O85" s="3">
+        <v>499.88067536289827</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C86" s="2">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="D86" s="3">
+        <v>706.24545924296035</v>
+      </c>
+      <c r="I86" s="2">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="J86" s="3">
+        <v>519.87633943879246</v>
+      </c>
+      <c r="N86" s="2">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="O86" s="3">
+        <v>480.21904222387298</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C87" s="2">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="D87" s="3">
+        <v>637.22879967234269</v>
+      </c>
+      <c r="I87" s="2">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="J87" s="3">
+        <v>542.46205990208352</v>
+      </c>
+      <c r="N87" s="2">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="O87" s="3">
+        <v>466.37646340534133</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C88" s="2">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="D88" s="3">
+        <v>564.86507819941232</v>
+      </c>
+      <c r="I88" s="2">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="J88" s="3">
+        <v>605.13051567798175</v>
+      </c>
+      <c r="N88" s="2">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="O88" s="3">
+        <v>484.96040014096849</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C89" s="2">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="D89" s="3">
+        <v>598.86244851792503</v>
+      </c>
+      <c r="I89" s="2">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="J89" s="3">
+        <v>504.02146469120243</v>
+      </c>
+      <c r="N89" s="2">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="O89" s="3">
+        <v>470.74984288680582</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C90" s="2">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="D90" s="3">
+        <v>634.57525712462291</v>
+      </c>
+      <c r="I90" s="2">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="J90" s="3">
+        <v>486.71882262734738</v>
+      </c>
+      <c r="N90" s="2">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="O90" s="3">
+        <v>481.6046542938235</v>
+      </c>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C91" s="2">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="D91" s="3">
+        <v>705.25006462643273</v>
+      </c>
+      <c r="I91" s="2">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="J91" s="3">
+        <v>562.87317917285736</v>
+      </c>
+      <c r="N91" s="2">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="O91" s="3">
+        <v>506.61303368003968</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C92" s="2">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="D92" s="3">
+        <v>696.28970420428925</v>
+      </c>
+      <c r="I92" s="2">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="J92" s="3">
+        <v>502.90693326856382</v>
+      </c>
+      <c r="N92" s="2">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="O92" s="3">
+        <v>571.30989084466762</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C93" s="2">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="D93" s="3">
+        <v>642.07998118832541</v>
+      </c>
+      <c r="I93" s="2">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="J93" s="3">
+        <v>477.87803487065128</v>
+      </c>
+      <c r="N93" s="2">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="O93" s="3">
+        <v>464.72972849277983</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C94" s="2">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="D94" s="3">
+        <v>574.08363241513234</v>
+      </c>
+      <c r="I94" s="2">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="J94" s="3">
+        <v>515.05813188173818</v>
+      </c>
+      <c r="N94" s="2">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="O94" s="3">
+        <v>524.95456733150445</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C95" s="2">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="D95" s="3">
+        <v>633.42607550386617</v>
+      </c>
+      <c r="I95" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="J95" s="3">
+        <v>550.40638692040943</v>
+      </c>
+      <c r="N95" s="2">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="O95" s="3">
+        <v>462.2807428944256</v>
+      </c>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C96" s="2">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="D96" s="3">
+        <v>655.94014392120914</v>
+      </c>
+      <c r="I96" s="2">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="J96" s="3">
+        <v>494.08229345258479</v>
+      </c>
+      <c r="N96" s="2">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="O96" s="3">
+        <v>484.43005333942921</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C97" s="2">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="D97" s="3">
+        <v>565.92207042709549</v>
+      </c>
+      <c r="I97" s="2">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="J97" s="3">
+        <v>551.94372714024428</v>
+      </c>
+      <c r="N97" s="2">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="O97" s="3">
+        <v>499.5211912790034</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C98" s="2">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="D98" s="3">
+        <v>628.42863051015263</v>
+      </c>
+      <c r="I98" s="2">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="J98" s="3">
+        <v>585.07019845125114</v>
+      </c>
+      <c r="N98" s="2">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="O98" s="3">
+        <v>450.27558678134608</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C99" s="2">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="D99" s="3">
+        <v>735.03061635615404</v>
+      </c>
+      <c r="I99" s="2">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="J99" s="3">
+        <v>533.11944274583709</v>
+      </c>
+      <c r="N99" s="2">
+        <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="O99" s="3">
+        <v>476.7264226864022</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C100" s="2">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="D100" s="3">
+        <v>702.47361684192379</v>
+      </c>
+      <c r="I100" s="2">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="J100" s="3">
+        <v>506.24124047510139</v>
+      </c>
+      <c r="N100" s="2">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="O100" s="3">
+        <v>548.12038080542493</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C101" s="2">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="D101" s="3">
+        <v>584.02369013601469</v>
+      </c>
+      <c r="I101" s="2">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="J101" s="3">
+        <v>551.82447141578041</v>
+      </c>
+      <c r="N101" s="2">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="O101" s="3">
+        <v>527.93950370518496</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C102" s="2">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="D102" s="3">
+        <v>631.75472358745674</v>
+      </c>
+      <c r="I102" s="2">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="J102" s="3">
+        <v>479.54984722063432</v>
+      </c>
+      <c r="N102" s="2">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="O102" s="3">
+        <v>480.19569436506993</v>
+      </c>
+    </row>
+    <row r="103" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C103" s="2">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="D103" s="3">
+        <v>673.91372099668456</v>
+      </c>
+      <c r="I103" s="2">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="J103" s="3">
+        <v>531.38712267116205</v>
+      </c>
+      <c r="N103" s="2">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="O103" s="3">
+        <v>454.12414328304129</v>
+      </c>
+    </row>
+    <row r="104" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C104" s="2">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="D104" s="3">
+        <v>607.50250352421142</v>
+      </c>
+      <c r="I104" s="2">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="J104" s="3">
+        <v>605.74414214005378</v>
+      </c>
+      <c r="N104" s="2">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="O104" s="3">
+        <v>505.26222030136722</v>
+      </c>
+    </row>
+    <row r="105" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C105" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="D105" s="3">
+        <v>720.46328075589508</v>
+      </c>
+      <c r="I105" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J105" s="3">
+        <v>504.18398812245169</v>
+      </c>
+      <c r="N105" s="2">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="O105" s="3">
+        <v>532.17325241932383</v>
+      </c>
+    </row>
+    <row r="107" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" s="3">
+        <f>AVERAGE(D6:D105)</f>
+        <v>647.57430166542758</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J107" s="3">
+        <f>AVERAGE(J6:J105)</f>
+        <v>481.359368396864</v>
+      </c>
+      <c r="N107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O107" s="3">
+        <f>AVERAGE(O6:O105)</f>
+        <v>497.17356484883953</v>
+      </c>
+    </row>
+    <row r="108" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C108" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="3">
+        <f>_xlfn.STDEV.S(D6:D105)</f>
+        <v>59.216547487236269</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J108" s="3">
+        <f>_xlfn.STDEV.S(J6:J105)</f>
+        <v>55.733006534081184</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O108" s="3">
+        <f>_xlfn.STDEV.S(O6:O105)</f>
+        <v>47.547921354532939</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/migforecasting/Hybridization/exp/test-4.xlsx
+++ b/migforecasting/Hybridization/exp/test-4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Non synth" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="11">
   <si>
     <t>test input (MAPE)</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Hybrid model-KZ (citiesdataset-NYDcor-4.csv) - synth</t>
+  </si>
+  <si>
+    <t>test input (MSE)</t>
   </si>
 </sst>
 </file>
@@ -103,13 +106,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -392,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:AD108"/>
+  <dimension ref="C3:AS108"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH84" sqref="AH84"/>
+    <sheetView tabSelected="1" topLeftCell="S52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AZ56" sqref="AZ56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,7 +411,7 @@
     <col min="16" max="16" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:45" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
@@ -424,8 +430,17 @@
       <c r="AD3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AI3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -444,8 +459,17 @@
       <c r="AC4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>0</v>
@@ -470,8 +494,20 @@
       <c r="AD5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -508,8 +544,26 @@
       <c r="AD6" s="3">
         <v>631.93844448889297</v>
       </c>
-    </row>
-    <row r="7" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>1.2841939350700521E-3</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>1.6766794025412639E-3</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>1.5558304737452149E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f>C6+1</f>
         <v>2</v>
@@ -552,8 +606,29 @@
       <c r="AD7" s="3">
         <v>612.8443823103587</v>
       </c>
-    </row>
-    <row r="8" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH7" s="2">
+        <f>AH6+1</f>
+        <v>2</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>1.36633317432575E-3</v>
+      </c>
+      <c r="AM7" s="2">
+        <f>AM6+1</f>
+        <v>2</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>1.3048300263610809E-3</v>
+      </c>
+      <c r="AR7" s="2">
+        <f>AR6+1</f>
+        <v>2</v>
+      </c>
+      <c r="AS7" s="4">
+        <v>1.4068738408271649E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" ref="C8:C71" si="0">C7+1</f>
         <v>3</v>
@@ -596,8 +671,29 @@
       <c r="AD8" s="3">
         <v>683.37854216672315</v>
       </c>
-    </row>
-    <row r="9" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH8" s="2">
+        <f t="shared" ref="AH8:AH71" si="6">AH7+1</f>
+        <v>3</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>1.4763937131747869E-3</v>
+      </c>
+      <c r="AM8" s="2">
+        <f t="shared" ref="AM8:AM71" si="7">AM7+1</f>
+        <v>3</v>
+      </c>
+      <c r="AN8" s="4">
+        <v>1.2891861373297211E-3</v>
+      </c>
+      <c r="AR8" s="2">
+        <f t="shared" ref="AR8:AR71" si="8">AR7+1</f>
+        <v>3</v>
+      </c>
+      <c r="AS8" s="4">
+        <v>1.515352810475466E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -640,8 +736,29 @@
       <c r="AD9" s="3">
         <v>615.4559013887291</v>
       </c>
-    </row>
-    <row r="10" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH9" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>1.451292225512901E-3</v>
+      </c>
+      <c r="AM9" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AN9" s="4">
+        <v>1.273924317491078E-3</v>
+      </c>
+      <c r="AR9" s="2">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AS9" s="4">
+        <v>1.3766643099211019E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -684,8 +801,29 @@
       <c r="AD10" s="3">
         <v>661.57610055434793</v>
       </c>
-    </row>
-    <row r="11" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH10" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>1.521872411718558E-3</v>
+      </c>
+      <c r="AM10" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AN10" s="4">
+        <v>1.652800889579874E-3</v>
+      </c>
+      <c r="AR10" s="2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AS10" s="4">
+        <v>1.60491897255474E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -728,8 +866,29 @@
       <c r="AD11" s="3">
         <v>674.47370728083115</v>
       </c>
-    </row>
-    <row r="12" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH11" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>1.471204235282001E-3</v>
+      </c>
+      <c r="AM11" s="2">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="AN11" s="4">
+        <v>1.4847858596201079E-3</v>
+      </c>
+      <c r="AR11" s="2">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AS11" s="4">
+        <v>1.5210493215808019E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -772,8 +931,29 @@
       <c r="AD12" s="3">
         <v>548.23537685259168</v>
       </c>
-    </row>
-    <row r="13" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH12" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>1.429636031210254E-3</v>
+      </c>
+      <c r="AM12" s="2">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AN12" s="4">
+        <v>1.243237249758948E-3</v>
+      </c>
+      <c r="AR12" s="2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AS12" s="4">
+        <v>1.2188646713168359E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -816,8 +996,29 @@
       <c r="AD13" s="3">
         <v>704.68394335543019</v>
       </c>
-    </row>
-    <row r="14" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH13" s="2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>1.5517195572280311E-3</v>
+      </c>
+      <c r="AM13" s="2">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="AN13" s="4">
+        <v>1.562629704082306E-3</v>
+      </c>
+      <c r="AR13" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="AS13" s="4">
+        <v>1.3349337413525481E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -860,8 +1061,29 @@
       <c r="AD14" s="3">
         <v>702.90565931344474</v>
       </c>
-    </row>
-    <row r="15" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH14" s="2">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="AI14" s="4">
+        <v>1.413422910420779E-3</v>
+      </c>
+      <c r="AM14" s="2">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="AN14" s="4">
+        <v>1.339633584871897E-3</v>
+      </c>
+      <c r="AR14" s="2">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="AS14" s="4">
+        <v>1.2663622663390329E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -904,8 +1126,29 @@
       <c r="AD15" s="3">
         <v>615.05605569207842</v>
       </c>
-    </row>
-    <row r="16" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH15" s="2">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AI15" s="4">
+        <v>1.4116800358799371E-3</v>
+      </c>
+      <c r="AM15" s="2">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AN15" s="4">
+        <v>1.506236482790672E-3</v>
+      </c>
+      <c r="AR15" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AS15" s="4">
+        <v>1.371651542783554E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -948,8 +1191,29 @@
       <c r="AD16" s="3">
         <v>667.37086333676154</v>
       </c>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH16" s="2">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="AI16" s="4">
+        <v>1.151779790584627E-3</v>
+      </c>
+      <c r="AM16" s="2">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="AN16" s="4">
+        <v>1.4562220398882291E-3</v>
+      </c>
+      <c r="AR16" s="2">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="AS16" s="4">
+        <v>1.3976772376288859E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -992,8 +1256,29 @@
       <c r="AD17" s="3">
         <v>707.06897983578995</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH17" s="2">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="AI17" s="4">
+        <v>1.4837423334172961E-3</v>
+      </c>
+      <c r="AM17" s="2">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="AN17" s="4">
+        <v>1.4457304395436509E-3</v>
+      </c>
+      <c r="AR17" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="AS17" s="4">
+        <v>1.602918004590929E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1036,8 +1321,29 @@
       <c r="AD18" s="3">
         <v>663.1831702194529</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH18" s="2">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="AI18" s="4">
+        <v>1.414907442670754E-3</v>
+      </c>
+      <c r="AM18" s="2">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AN18" s="4">
+        <v>1.3080090103240441E-3</v>
+      </c>
+      <c r="AR18" s="2">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="AS18" s="4">
+        <v>1.4685089128807431E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1080,8 +1386,29 @@
       <c r="AD19" s="3">
         <v>586.4359219148846</v>
       </c>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH19" s="2">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="AI19" s="4">
+        <v>1.461732697050342E-3</v>
+      </c>
+      <c r="AM19" s="2">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="AN19" s="4">
+        <v>1.699796246244037E-3</v>
+      </c>
+      <c r="AR19" s="2">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="AS19" s="4">
+        <v>1.4504957890531811E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1124,8 +1451,29 @@
       <c r="AD20" s="3">
         <v>564.20895621404247</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH20" s="2">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="AI20" s="4">
+        <v>1.533160168689103E-3</v>
+      </c>
+      <c r="AM20" s="2">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="AN20" s="4">
+        <v>1.4412401180658391E-3</v>
+      </c>
+      <c r="AR20" s="2">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="AS20" s="4">
+        <v>1.7618376255728329E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1168,8 +1516,29 @@
       <c r="AD21" s="3">
         <v>680.89242689640605</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH21" s="2">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="AI21" s="4">
+        <v>1.453673909734509E-3</v>
+      </c>
+      <c r="AM21" s="2">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="AN21" s="4">
+        <v>1.570654937898976E-3</v>
+      </c>
+      <c r="AR21" s="2">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="AS21" s="4">
+        <v>1.5384105005768259E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1212,8 +1581,29 @@
       <c r="AD22" s="3">
         <v>673.85630524440819</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH22" s="2">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="AI22" s="4">
+        <v>1.5089528818925529E-3</v>
+      </c>
+      <c r="AM22" s="2">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="AN22" s="4">
+        <v>1.415919470779991E-3</v>
+      </c>
+      <c r="AR22" s="2">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="AS22" s="4">
+        <v>1.4679248688914269E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1256,8 +1646,29 @@
       <c r="AD23" s="3">
         <v>626.86025826761067</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH23" s="2">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="AI23" s="4">
+        <v>1.3411199853481869E-3</v>
+      </c>
+      <c r="AM23" s="2">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="AN23" s="4">
+        <v>1.4186397659326621E-3</v>
+      </c>
+      <c r="AR23" s="2">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="AS23" s="4">
+        <v>1.5058349202796569E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1300,8 +1711,29 @@
       <c r="AD24" s="3">
         <v>571.7426509220096</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH24" s="2">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="AI24" s="4">
+        <v>1.4703410891147249E-3</v>
+      </c>
+      <c r="AM24" s="2">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="AN24" s="4">
+        <v>1.523401240417978E-3</v>
+      </c>
+      <c r="AR24" s="2">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="AS24" s="4">
+        <v>1.499134316260497E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1344,8 +1776,29 @@
       <c r="AD25" s="3">
         <v>707.61095406141555</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH25" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AI25" s="4">
+        <v>1.332336420975262E-3</v>
+      </c>
+      <c r="AM25" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="AN25" s="4">
+        <v>1.4013181475694119E-3</v>
+      </c>
+      <c r="AR25" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AS25" s="4">
+        <v>1.5468270891727291E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1388,8 +1841,29 @@
       <c r="AD26" s="3">
         <v>615.81746866308413</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH26" s="2">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="AI26" s="4">
+        <v>1.5299161971609001E-3</v>
+      </c>
+      <c r="AM26" s="2">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="AN26" s="4">
+        <v>1.3725329304696641E-3</v>
+      </c>
+      <c r="AR26" s="2">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="AS26" s="4">
+        <v>1.3002006479016679E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1432,8 +1906,29 @@
       <c r="AD27" s="3">
         <v>539.00364303539368</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH27" s="2">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="AI27" s="4">
+        <v>1.516431738028492E-3</v>
+      </c>
+      <c r="AM27" s="2">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="AN27" s="4">
+        <v>1.6512760183565081E-3</v>
+      </c>
+      <c r="AR27" s="2">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="AS27" s="4">
+        <v>1.541890011023279E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1476,8 +1971,29 @@
       <c r="AD28" s="3">
         <v>545.24698970358429</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH28" s="2">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="AI28" s="4">
+        <v>1.469050080428099E-3</v>
+      </c>
+      <c r="AM28" s="2">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="AN28" s="4">
+        <v>1.429728009195738E-3</v>
+      </c>
+      <c r="AR28" s="2">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="AS28" s="4">
+        <v>1.6195865420467581E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1520,8 +2036,29 @@
       <c r="AD29" s="3">
         <v>640.4768687373786</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH29" s="2">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="AI29" s="4">
+        <v>1.3140494090298049E-3</v>
+      </c>
+      <c r="AM29" s="2">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="AN29" s="4">
+        <v>1.4445193194050699E-3</v>
+      </c>
+      <c r="AR29" s="2">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="AS29" s="4">
+        <v>1.291639412750513E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1564,8 +2101,29 @@
       <c r="AD30" s="3">
         <v>576.90834871604272</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH30" s="2">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="AI30" s="4">
+        <v>1.4924613041986401E-3</v>
+      </c>
+      <c r="AM30" s="2">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="AN30" s="4">
+        <v>1.466533721096532E-3</v>
+      </c>
+      <c r="AR30" s="2">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="AS30" s="4">
+        <v>1.699061175671592E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1608,8 +2166,29 @@
       <c r="AD31" s="3">
         <v>526.46703308949532</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH31" s="2">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="AI31" s="4">
+        <v>1.5760754510477459E-3</v>
+      </c>
+      <c r="AM31" s="2">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="AN31" s="4">
+        <v>1.5934422632487321E-3</v>
+      </c>
+      <c r="AR31" s="2">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="AS31" s="4">
+        <v>1.6223541064465971E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1652,8 +2231,29 @@
       <c r="AD32" s="3">
         <v>448.36962700499021</v>
       </c>
-    </row>
-    <row r="33" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH32" s="2">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="AI32" s="4">
+        <v>1.3788176812691169E-3</v>
+      </c>
+      <c r="AM32" s="2">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="AN32" s="4">
+        <v>1.4771177540370451E-3</v>
+      </c>
+      <c r="AR32" s="2">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="AS32" s="4">
+        <v>1.5712767180817459E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1696,8 +2296,29 @@
       <c r="AD33" s="3">
         <v>640.06556949365552</v>
       </c>
-    </row>
-    <row r="34" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH33" s="2">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="AI33" s="4">
+        <v>1.50747132871992E-3</v>
+      </c>
+      <c r="AM33" s="2">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="AN33" s="4">
+        <v>1.4329210111498241E-3</v>
+      </c>
+      <c r="AR33" s="2">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="AS33" s="4">
+        <v>1.539994243271054E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1740,8 +2361,29 @@
       <c r="AD34" s="3">
         <v>670.04271873928337</v>
       </c>
-    </row>
-    <row r="35" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH34" s="2">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="AI34" s="4">
+        <v>1.534555402844215E-3</v>
+      </c>
+      <c r="AM34" s="2">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="AN34" s="4">
+        <v>1.5322128899646239E-3</v>
+      </c>
+      <c r="AR34" s="2">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="AS34" s="4">
+        <v>1.385982541526994E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1784,8 +2426,29 @@
       <c r="AD35" s="3">
         <v>695.16442145768951</v>
       </c>
-    </row>
-    <row r="36" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH35" s="2">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="AI35" s="4">
+        <v>1.741663588104672E-3</v>
+      </c>
+      <c r="AM35" s="2">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="AN35" s="4">
+        <v>1.497349490751685E-3</v>
+      </c>
+      <c r="AR35" s="2">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="AS35" s="4">
+        <v>1.195864292075852E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1828,8 +2491,29 @@
       <c r="AD36" s="3">
         <v>715.15056811254533</v>
       </c>
-    </row>
-    <row r="37" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH36" s="2">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="AI36" s="4">
+        <v>1.254897336761273E-3</v>
+      </c>
+      <c r="AM36" s="2">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="AN36" s="4">
+        <v>1.4955841308965389E-3</v>
+      </c>
+      <c r="AR36" s="2">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="AS36" s="4">
+        <v>1.571328831786145E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1872,8 +2556,29 @@
       <c r="AD37" s="3">
         <v>720.64686954699471</v>
       </c>
-    </row>
-    <row r="38" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH37" s="2">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="AI37" s="4">
+        <v>1.4423450698418201E-3</v>
+      </c>
+      <c r="AM37" s="2">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="AN37" s="4">
+        <v>1.5777501302652491E-3</v>
+      </c>
+      <c r="AR37" s="2">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="AS37" s="4">
+        <v>1.4084657116170669E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1916,8 +2621,29 @@
       <c r="AD38" s="3">
         <v>589.09323389339681</v>
       </c>
-    </row>
-    <row r="39" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH38" s="2">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="AI38" s="4">
+        <v>1.680162904829088E-3</v>
+      </c>
+      <c r="AM38" s="2">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="AN38" s="4">
+        <v>1.5928018200576249E-3</v>
+      </c>
+      <c r="AR38" s="2">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="AS38" s="4">
+        <v>1.449828240553839E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1960,8 +2686,29 @@
       <c r="AD39" s="3">
         <v>657.32607921857652</v>
       </c>
-    </row>
-    <row r="40" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH39" s="2">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="AI39" s="4">
+        <v>1.413125248475185E-3</v>
+      </c>
+      <c r="AM39" s="2">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="AN39" s="4">
+        <v>1.695783444527623E-3</v>
+      </c>
+      <c r="AR39" s="2">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="AS39" s="4">
+        <v>1.413873855820588E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2004,8 +2751,29 @@
       <c r="AD40" s="3">
         <v>679.52828809006655</v>
       </c>
-    </row>
-    <row r="41" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH40" s="2">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="AI40" s="4">
+        <v>1.3839806233390151E-3</v>
+      </c>
+      <c r="AM40" s="2">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="AN40" s="4">
+        <v>1.6174543202275621E-3</v>
+      </c>
+      <c r="AR40" s="2">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="AS40" s="4">
+        <v>1.3994433130980651E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2048,8 +2816,29 @@
       <c r="AD41" s="3">
         <v>672.79925077151586</v>
       </c>
-    </row>
-    <row r="42" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH41" s="2">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="AI41" s="4">
+        <v>1.615795234131959E-3</v>
+      </c>
+      <c r="AM41" s="2">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="AN41" s="4">
+        <v>1.781303295335648E-3</v>
+      </c>
+      <c r="AR41" s="2">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="AS41" s="4">
+        <v>1.5628422170904149E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2092,8 +2881,29 @@
       <c r="AD42" s="3">
         <v>702.60497947384385</v>
       </c>
-    </row>
-    <row r="43" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH42" s="2">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="AI42" s="4">
+        <v>1.3808021709195871E-3</v>
+      </c>
+      <c r="AM42" s="2">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="AN42" s="4">
+        <v>1.664347701642281E-3</v>
+      </c>
+      <c r="AR42" s="2">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="AS42" s="4">
+        <v>1.5089963527769061E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2136,8 +2946,29 @@
       <c r="AD43" s="3">
         <v>737.14053301329591</v>
       </c>
-    </row>
-    <row r="44" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH43" s="2">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="AI43" s="4">
+        <v>1.750175578753607E-3</v>
+      </c>
+      <c r="AM43" s="2">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="AN43" s="4">
+        <v>1.4389315153024861E-3</v>
+      </c>
+      <c r="AR43" s="2">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="AS43" s="4">
+        <v>1.716226328588592E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2180,8 +3011,29 @@
       <c r="AD44" s="3">
         <v>595.72421952985007</v>
       </c>
-    </row>
-    <row r="45" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH44" s="2">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="AI44" s="4">
+        <v>1.5565738374443011E-3</v>
+      </c>
+      <c r="AM44" s="2">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="AN44" s="4">
+        <v>1.5297958488086111E-3</v>
+      </c>
+      <c r="AR44" s="2">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="AS44" s="4">
+        <v>1.462171973196238E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2224,8 +3076,29 @@
       <c r="AD45" s="3">
         <v>716.15331204518498</v>
       </c>
-    </row>
-    <row r="46" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH45" s="2">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="AI45" s="4">
+        <v>1.537064065485954E-3</v>
+      </c>
+      <c r="AM45" s="2">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="AN45" s="4">
+        <v>1.375411025126757E-3</v>
+      </c>
+      <c r="AR45" s="2">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="AS45" s="4">
+        <v>1.2145558383046299E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2268,8 +3141,29 @@
       <c r="AD46" s="3">
         <v>712.97552244065912</v>
       </c>
-    </row>
-    <row r="47" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH46" s="2">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="AI46" s="4">
+        <v>1.4360071736066341E-3</v>
+      </c>
+      <c r="AM46" s="2">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="AN46" s="4">
+        <v>1.5861345005295669E-3</v>
+      </c>
+      <c r="AR46" s="2">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="AS46" s="4">
+        <v>1.431548250953993E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2312,8 +3206,29 @@
       <c r="AD47" s="3">
         <v>671.85655160589704</v>
       </c>
-    </row>
-    <row r="48" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH47" s="2">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="AI47" s="4">
+        <v>1.362276162520077E-3</v>
+      </c>
+      <c r="AM47" s="2">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="AN47" s="4">
+        <v>1.355887224417301E-3</v>
+      </c>
+      <c r="AR47" s="2">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="AS47" s="4">
+        <v>1.291632663235967E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2356,8 +3271,29 @@
       <c r="AD48" s="3">
         <v>719.6615732274156</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH48" s="2">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="AI48" s="4">
+        <v>1.429965735178503E-3</v>
+      </c>
+      <c r="AM48" s="2">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="AN48" s="4">
+        <v>1.840968579754781E-3</v>
+      </c>
+      <c r="AR48" s="2">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="AS48" s="4">
+        <v>1.441651161575836E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2400,8 +3336,29 @@
       <c r="AD49" s="3">
         <v>701.4176171086209</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH49" s="2">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="AI49" s="4">
+        <v>1.457051298530132E-3</v>
+      </c>
+      <c r="AM49" s="2">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="AN49" s="4">
+        <v>1.301352542089364E-3</v>
+      </c>
+      <c r="AR49" s="2">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="AS49" s="4">
+        <v>1.3866506898831811E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2444,8 +3401,29 @@
       <c r="AD50" s="3">
         <v>627.54524945707999</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH50" s="2">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="AI50" s="4">
+        <v>1.4130478159155959E-3</v>
+      </c>
+      <c r="AM50" s="2">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="AN50" s="4">
+        <v>1.395706174583343E-3</v>
+      </c>
+      <c r="AR50" s="2">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="AS50" s="4">
+        <v>1.5756150801062201E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2488,8 +3466,29 @@
       <c r="AD51" s="3">
         <v>643.0341393302084</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH51" s="2">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="AI51" s="4">
+        <v>1.4403949075236929E-3</v>
+      </c>
+      <c r="AM51" s="2">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="AN51" s="4">
+        <v>1.2501010633646939E-3</v>
+      </c>
+      <c r="AR51" s="2">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="AS51" s="4">
+        <v>1.553856382680102E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2532,8 +3531,29 @@
       <c r="AD52" s="3">
         <v>724.04721396730963</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH52" s="2">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="AI52" s="4">
+        <v>1.4649442754688781E-3</v>
+      </c>
+      <c r="AM52" s="2">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+      <c r="AN52" s="4">
+        <v>1.505892293474576E-3</v>
+      </c>
+      <c r="AR52" s="2">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="AS52" s="4">
+        <v>1.38810235776838E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2576,8 +3596,29 @@
       <c r="AD53" s="3">
         <v>655.69785208785709</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH53" s="2">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="AI53" s="4">
+        <v>1.2744231591290201E-3</v>
+      </c>
+      <c r="AM53" s="2">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="AN53" s="4">
+        <v>1.7556960109449389E-3</v>
+      </c>
+      <c r="AR53" s="2">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="AS53" s="4">
+        <v>1.328746346726542E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2620,8 +3661,29 @@
       <c r="AD54" s="3">
         <v>732.12783279993823</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH54" s="2">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="AI54" s="4">
+        <v>1.370891282258902E-3</v>
+      </c>
+      <c r="AM54" s="2">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="AN54" s="4">
+        <v>1.5435280824727901E-3</v>
+      </c>
+      <c r="AR54" s="2">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="AS54" s="4">
+        <v>1.600248440852436E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C55" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2664,8 +3726,29 @@
       <c r="AD55" s="3">
         <v>698.64593586886031</v>
       </c>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH55" s="2">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="AI55" s="4">
+        <v>1.5776774287239619E-3</v>
+      </c>
+      <c r="AM55" s="2">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="AN55" s="4">
+        <v>1.5022500110228011E-3</v>
+      </c>
+      <c r="AR55" s="2">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="AS55" s="4">
+        <v>1.2929659583772841E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C56" s="2">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2708,8 +3791,29 @@
       <c r="AD56" s="3">
         <v>662.82366846687148</v>
       </c>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH56" s="2">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="AI56" s="4">
+        <v>1.7650577283920539E-3</v>
+      </c>
+      <c r="AM56" s="2">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="AN56" s="4">
+        <v>1.460876168663063E-3</v>
+      </c>
+      <c r="AR56" s="2">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="AS56" s="4">
+        <v>1.341579494790112E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C57" s="2">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2752,8 +3856,29 @@
       <c r="AD57" s="3">
         <v>709.59265497009085</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH57" s="2">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="AI57" s="4">
+        <v>1.358981312058957E-3</v>
+      </c>
+      <c r="AM57" s="2">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="AN57" s="4">
+        <v>1.440942952873723E-3</v>
+      </c>
+      <c r="AR57" s="2">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+      <c r="AS57" s="4">
+        <v>1.3497167230600759E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C58" s="2">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2796,8 +3921,29 @@
       <c r="AD58" s="3">
         <v>591.93472854040363</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH58" s="2">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="AI58" s="4">
+        <v>1.459634614770817E-3</v>
+      </c>
+      <c r="AM58" s="2">
+        <f t="shared" si="7"/>
+        <v>53</v>
+      </c>
+      <c r="AN58" s="4">
+        <v>1.514871377844632E-3</v>
+      </c>
+      <c r="AR58" s="2">
+        <f t="shared" si="8"/>
+        <v>53</v>
+      </c>
+      <c r="AS58" s="4">
+        <v>1.2872277806014419E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C59" s="2">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2840,8 +3986,29 @@
       <c r="AD59" s="3">
         <v>683.00254490989346</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH59" s="2">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="AI59" s="4">
+        <v>1.268844005492001E-3</v>
+      </c>
+      <c r="AM59" s="2">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="AN59" s="4">
+        <v>1.524185733909655E-3</v>
+      </c>
+      <c r="AR59" s="2">
+        <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+      <c r="AS59" s="4">
+        <v>1.49683883910356E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C60" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2884,8 +4051,29 @@
       <c r="AD60" s="3">
         <v>605.76398159789608</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH60" s="2">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="AI60" s="4">
+        <v>1.365190816226955E-3</v>
+      </c>
+      <c r="AM60" s="2">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="AN60" s="4">
+        <v>1.4069766078560681E-3</v>
+      </c>
+      <c r="AR60" s="2">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="AS60" s="4">
+        <v>1.3668826144088791E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C61" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2928,8 +4116,29 @@
       <c r="AD61" s="3">
         <v>631.61605335847833</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH61" s="2">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="AI61" s="4">
+        <v>1.467362189373425E-3</v>
+      </c>
+      <c r="AM61" s="2">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="AN61" s="4">
+        <v>1.390305613832584E-3</v>
+      </c>
+      <c r="AR61" s="2">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="AS61" s="4">
+        <v>1.2710669728185401E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C62" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2972,8 +4181,29 @@
       <c r="AD62" s="3">
         <v>536.89878243227713</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH62" s="2">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="AI62" s="4">
+        <v>1.5448095118444369E-3</v>
+      </c>
+      <c r="AM62" s="2">
+        <f t="shared" si="7"/>
+        <v>57</v>
+      </c>
+      <c r="AN62" s="4">
+        <v>1.4036830665322621E-3</v>
+      </c>
+      <c r="AR62" s="2">
+        <f t="shared" si="8"/>
+        <v>57</v>
+      </c>
+      <c r="AS62" s="4">
+        <v>1.61100559657044E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C63" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3016,8 +4246,29 @@
       <c r="AD63" s="3">
         <v>719.67908646702381</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH63" s="2">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="AI63" s="4">
+        <v>1.508681957746743E-3</v>
+      </c>
+      <c r="AM63" s="2">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="AN63" s="4">
+        <v>1.603712094489827E-3</v>
+      </c>
+      <c r="AR63" s="2">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+      <c r="AS63" s="4">
+        <v>1.235721875529802E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C64" s="2">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3060,8 +4311,29 @@
       <c r="AD64" s="3">
         <v>700.70023840819795</v>
       </c>
-    </row>
-    <row r="65" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH64" s="2">
+        <f t="shared" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="AI64" s="4">
+        <v>1.573375686454328E-3</v>
+      </c>
+      <c r="AM64" s="2">
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="AN64" s="4">
+        <v>1.415747318990922E-3</v>
+      </c>
+      <c r="AR64" s="2">
+        <f t="shared" si="8"/>
+        <v>59</v>
+      </c>
+      <c r="AS64" s="4">
+        <v>1.25143315096386E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C65" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3104,8 +4376,29 @@
       <c r="AD65" s="3">
         <v>547.31272288261414</v>
       </c>
-    </row>
-    <row r="66" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH65" s="2">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="AI65" s="4">
+        <v>1.4148175721163251E-3</v>
+      </c>
+      <c r="AM65" s="2">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="AN65" s="4">
+        <v>1.273091712524706E-3</v>
+      </c>
+      <c r="AR65" s="2">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="AS65" s="4">
+        <v>1.4878645994428571E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C66" s="2">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3148,8 +4441,29 @@
       <c r="AD66" s="3">
         <v>592.0511680858757</v>
       </c>
-    </row>
-    <row r="67" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH66" s="2">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="AI66" s="4">
+        <v>1.616978566752747E-3</v>
+      </c>
+      <c r="AM66" s="2">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="AN66" s="4">
+        <v>1.533449920241543E-3</v>
+      </c>
+      <c r="AR66" s="2">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+      <c r="AS66" s="4">
+        <v>1.17495385687971E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C67" s="2">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3192,8 +4506,29 @@
       <c r="AD67" s="3">
         <v>643.89814231150137</v>
       </c>
-    </row>
-    <row r="68" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH67" s="2">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="AI67" s="4">
+        <v>1.558498877968333E-3</v>
+      </c>
+      <c r="AM67" s="2">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="AN67" s="4">
+        <v>1.4088107317269749E-3</v>
+      </c>
+      <c r="AR67" s="2">
+        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+      <c r="AS67" s="4">
+        <v>1.5772940978294281E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C68" s="2">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3236,8 +4571,29 @@
       <c r="AD68" s="3">
         <v>682.54901698289234</v>
       </c>
-    </row>
-    <row r="69" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH68" s="2">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="AI68" s="4">
+        <v>1.3362449221165759E-3</v>
+      </c>
+      <c r="AM68" s="2">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="AN68" s="4">
+        <v>1.3602285837366909E-3</v>
+      </c>
+      <c r="AR68" s="2">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="AS68" s="4">
+        <v>1.6345257888284561E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C69" s="2">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3280,8 +4636,29 @@
       <c r="AD69" s="3">
         <v>697.01019206956903</v>
       </c>
-    </row>
-    <row r="70" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH69" s="2">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="AI69" s="4">
+        <v>1.402276353350799E-3</v>
+      </c>
+      <c r="AM69" s="2">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="AN69" s="4">
+        <v>1.4956286479365171E-3</v>
+      </c>
+      <c r="AR69" s="2">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="AS69" s="4">
+        <v>1.390663203181527E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C70" s="2">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3324,8 +4701,29 @@
       <c r="AD70" s="3">
         <v>628.49063954928124</v>
       </c>
-    </row>
-    <row r="71" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH70" s="2">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="AI70" s="4">
+        <v>1.5156939920812631E-3</v>
+      </c>
+      <c r="AM70" s="2">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="AN70" s="4">
+        <v>1.4988133301093011E-3</v>
+      </c>
+      <c r="AR70" s="2">
+        <f t="shared" si="8"/>
+        <v>65</v>
+      </c>
+      <c r="AS70" s="4">
+        <v>1.4425917188145381E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C71" s="2">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3368,1504 +4766,2239 @@
       <c r="AD71" s="3">
         <v>637.42032913285209</v>
       </c>
-    </row>
-    <row r="72" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH71" s="2">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="AI71" s="4">
+        <v>1.551651470031319E-3</v>
+      </c>
+      <c r="AM71" s="2">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="AN71" s="4">
+        <v>1.23700017957983E-3</v>
+      </c>
+      <c r="AR71" s="2">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="AS71" s="4">
+        <v>1.536337649755635E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C72" s="2">
-        <f t="shared" ref="C72:C105" si="6">C71+1</f>
+        <f t="shared" ref="C72:C105" si="9">C71+1</f>
         <v>67</v>
       </c>
       <c r="D72" s="3">
         <v>6.1957437797988391</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" ref="H72:H105" si="7">H71+1</f>
+        <f t="shared" ref="H72:H105" si="10">H71+1</f>
         <v>67</v>
       </c>
       <c r="I72" s="3">
         <v>5.4336118609278854</v>
       </c>
       <c r="M72" s="2">
-        <f t="shared" ref="M72:M105" si="8">M71+1</f>
+        <f t="shared" ref="M72:M105" si="11">M71+1</f>
         <v>67</v>
       </c>
       <c r="N72" s="3">
         <v>4.6997088131237668</v>
       </c>
       <c r="S72" s="2">
-        <f t="shared" ref="S72:S105" si="9">S71+1</f>
+        <f t="shared" ref="S72:S105" si="12">S71+1</f>
         <v>67</v>
       </c>
       <c r="T72" s="3">
         <v>594.67331242618127</v>
       </c>
       <c r="X72" s="2">
-        <f t="shared" ref="X72:X105" si="10">X71+1</f>
+        <f t="shared" ref="X72:X105" si="13">X71+1</f>
         <v>67</v>
       </c>
       <c r="Y72" s="3">
         <v>611.04483845772734</v>
       </c>
       <c r="AC72" s="2">
-        <f t="shared" ref="AC72:AC105" si="11">AC71+1</f>
+        <f t="shared" ref="AC72:AC105" si="14">AC71+1</f>
         <v>67</v>
       </c>
       <c r="AD72" s="3">
         <v>589.13995828094539</v>
       </c>
-    </row>
-    <row r="73" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH72" s="2">
+        <f t="shared" ref="AH72:AH105" si="15">AH71+1</f>
+        <v>67</v>
+      </c>
+      <c r="AI72" s="4">
+        <v>1.213188439106231E-3</v>
+      </c>
+      <c r="AM72" s="2">
+        <f t="shared" ref="AM72:AM105" si="16">AM71+1</f>
+        <v>67</v>
+      </c>
+      <c r="AN72" s="4">
+        <v>1.619615851655237E-3</v>
+      </c>
+      <c r="AR72" s="2">
+        <f t="shared" ref="AR72:AR105" si="17">AR71+1</f>
+        <v>67</v>
+      </c>
+      <c r="AS72" s="4">
+        <v>1.4009890980160281E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C73" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="D73" s="3">
         <v>4.8041454560862276</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
       <c r="I73" s="3">
         <v>4.5067270512950266</v>
       </c>
       <c r="M73" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>68</v>
       </c>
       <c r="N73" s="3">
         <v>4.5663704516753301</v>
       </c>
       <c r="S73" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>68</v>
       </c>
       <c r="T73" s="3">
         <v>651.07499780927276</v>
       </c>
       <c r="X73" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>68</v>
       </c>
       <c r="Y73" s="3">
         <v>645.50716762868069</v>
       </c>
       <c r="AC73" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>68</v>
       </c>
       <c r="AD73" s="3">
         <v>608.07559973520711</v>
       </c>
-    </row>
-    <row r="74" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH73" s="2">
+        <f t="shared" si="15"/>
+        <v>68</v>
+      </c>
+      <c r="AI73" s="4">
+        <v>1.6089501147361701E-3</v>
+      </c>
+      <c r="AM73" s="2">
+        <f t="shared" si="16"/>
+        <v>68</v>
+      </c>
+      <c r="AN73" s="4">
+        <v>1.361996774379618E-3</v>
+      </c>
+      <c r="AR73" s="2">
+        <f t="shared" si="17"/>
+        <v>68</v>
+      </c>
+      <c r="AS73" s="4">
+        <v>1.617292586175752E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C74" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>69</v>
       </c>
       <c r="D74" s="3">
         <v>4.8626252773356704</v>
       </c>
       <c r="H74" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
       <c r="I74" s="3">
         <v>4.1256977875760867</v>
       </c>
       <c r="M74" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>69</v>
       </c>
       <c r="N74" s="3">
         <v>6.4960563000925724</v>
       </c>
       <c r="S74" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>69</v>
       </c>
       <c r="T74" s="3">
         <v>674.00509858269447</v>
       </c>
       <c r="X74" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>69</v>
       </c>
       <c r="Y74" s="3">
         <v>731.27582799938966</v>
       </c>
       <c r="AC74" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>69</v>
       </c>
       <c r="AD74" s="3">
         <v>670.91919252676416</v>
       </c>
-    </row>
-    <row r="75" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH74" s="2">
+        <f t="shared" si="15"/>
+        <v>69</v>
+      </c>
+      <c r="AI74" s="4">
+        <v>1.4903074804637521E-3</v>
+      </c>
+      <c r="AM74" s="2">
+        <f t="shared" si="16"/>
+        <v>69</v>
+      </c>
+      <c r="AN74" s="4">
+        <v>1.6038381788852139E-3</v>
+      </c>
+      <c r="AR74" s="2">
+        <f t="shared" si="17"/>
+        <v>69</v>
+      </c>
+      <c r="AS74" s="4">
+        <v>1.3247556725811431E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C75" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="D75" s="3">
         <v>4.5568163491311333</v>
       </c>
       <c r="H75" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="I75" s="3">
         <v>6.0832355235754187</v>
       </c>
       <c r="M75" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
       <c r="N75" s="3">
         <v>4.0714903559581037</v>
       </c>
       <c r="S75" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
       <c r="T75" s="3">
         <v>674.79827156436829</v>
       </c>
       <c r="X75" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>70</v>
       </c>
       <c r="Y75" s="3">
         <v>660.64125004762354</v>
       </c>
       <c r="AC75" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
       <c r="AD75" s="3">
         <v>584.93805106297748</v>
       </c>
-    </row>
-    <row r="76" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH75" s="2">
+        <f t="shared" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="AI75" s="4">
+        <v>1.4292020612550721E-3</v>
+      </c>
+      <c r="AM75" s="2">
+        <f t="shared" si="16"/>
+        <v>70</v>
+      </c>
+      <c r="AN75" s="4">
+        <v>1.541937319928035E-3</v>
+      </c>
+      <c r="AR75" s="2">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="AS75" s="4">
+        <v>1.8684860789545529E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C76" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>71</v>
       </c>
       <c r="D76" s="3">
         <v>5.3304195511825592</v>
       </c>
       <c r="H76" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>71</v>
       </c>
       <c r="I76" s="3">
         <v>5.9459600420297249</v>
       </c>
       <c r="M76" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>71</v>
       </c>
       <c r="N76" s="3">
         <v>5.3865247254744544</v>
       </c>
       <c r="S76" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>71</v>
       </c>
       <c r="T76" s="3">
         <v>649.73594363165239</v>
       </c>
       <c r="X76" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>71</v>
       </c>
       <c r="Y76" s="3">
         <v>730.34574803787007</v>
       </c>
       <c r="AC76" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>71</v>
       </c>
       <c r="AD76" s="3">
         <v>674.22932887568015</v>
       </c>
-    </row>
-    <row r="77" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH76" s="2">
+        <f t="shared" si="15"/>
+        <v>71</v>
+      </c>
+      <c r="AI76" s="4">
+        <v>1.35780172332003E-3</v>
+      </c>
+      <c r="AM76" s="2">
+        <f t="shared" si="16"/>
+        <v>71</v>
+      </c>
+      <c r="AN76" s="4">
+        <v>1.65029772310538E-3</v>
+      </c>
+      <c r="AR76" s="2">
+        <f t="shared" si="17"/>
+        <v>71</v>
+      </c>
+      <c r="AS76" s="4">
+        <v>1.481322128890646E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C77" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
       <c r="D77" s="3">
         <v>4.9742829803531139</v>
       </c>
       <c r="H77" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="I77" s="3">
         <v>5.6253742975261227</v>
       </c>
       <c r="M77" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
       <c r="N77" s="3">
         <v>5.0171514360081142</v>
       </c>
       <c r="S77" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>72</v>
       </c>
       <c r="T77" s="3">
         <v>704.00530146302367</v>
       </c>
       <c r="X77" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>72</v>
       </c>
       <c r="Y77" s="3">
         <v>712.2701850687688</v>
       </c>
       <c r="AC77" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>72</v>
       </c>
       <c r="AD77" s="3">
         <v>740.34852649826553</v>
       </c>
-    </row>
-    <row r="78" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH77" s="2">
+        <f t="shared" si="15"/>
+        <v>72</v>
+      </c>
+      <c r="AI77" s="4">
+        <v>1.5664392932469211E-3</v>
+      </c>
+      <c r="AM77" s="2">
+        <f t="shared" si="16"/>
+        <v>72</v>
+      </c>
+      <c r="AN77" s="4">
+        <v>1.670743659324594E-3</v>
+      </c>
+      <c r="AR77" s="2">
+        <f t="shared" si="17"/>
+        <v>72</v>
+      </c>
+      <c r="AS77" s="4">
+        <v>1.8122322052478519E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C78" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>73</v>
       </c>
       <c r="D78" s="3">
         <v>5.6410687641735491</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>73</v>
       </c>
       <c r="I78" s="3">
         <v>4.5704275867501112</v>
       </c>
       <c r="M78" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>73</v>
       </c>
       <c r="N78" s="3">
         <v>5.6698941686536637</v>
       </c>
       <c r="S78" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>73</v>
       </c>
       <c r="T78" s="3">
         <v>651.33276512553709</v>
       </c>
       <c r="X78" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>73</v>
       </c>
       <c r="Y78" s="3">
         <v>767.90029927229659</v>
       </c>
       <c r="AC78" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>73</v>
       </c>
       <c r="AD78" s="3">
         <v>645.35519778450782</v>
       </c>
-    </row>
-    <row r="79" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH78" s="2">
+        <f t="shared" si="15"/>
+        <v>73</v>
+      </c>
+      <c r="AI78" s="4">
+        <v>1.461525548176005E-3</v>
+      </c>
+      <c r="AM78" s="2">
+        <f t="shared" si="16"/>
+        <v>73</v>
+      </c>
+      <c r="AN78" s="4">
+        <v>1.2608131667621559E-3</v>
+      </c>
+      <c r="AR78" s="2">
+        <f t="shared" si="17"/>
+        <v>73</v>
+      </c>
+      <c r="AS78" s="4">
+        <v>1.5079239015794151E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C79" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>74</v>
       </c>
       <c r="D79" s="3">
         <v>4.9359916990628649</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>74</v>
       </c>
       <c r="I79" s="3">
         <v>6.5785143137885864</v>
       </c>
       <c r="M79" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>74</v>
       </c>
       <c r="N79" s="3">
         <v>6.1136454930194581</v>
       </c>
       <c r="S79" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>74</v>
       </c>
       <c r="T79" s="3">
         <v>703.6719457938043</v>
       </c>
       <c r="X79" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>74</v>
       </c>
       <c r="Y79" s="3">
         <v>559.57860674553194</v>
       </c>
       <c r="AC79" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>74</v>
       </c>
       <c r="AD79" s="3">
         <v>557.92731288337632</v>
       </c>
-    </row>
-    <row r="80" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH79" s="2">
+        <f t="shared" si="15"/>
+        <v>74</v>
+      </c>
+      <c r="AI79" s="4">
+        <v>1.6289811638438871E-3</v>
+      </c>
+      <c r="AM79" s="2">
+        <f t="shared" si="16"/>
+        <v>74</v>
+      </c>
+      <c r="AN79" s="4">
+        <v>1.5594552924799391E-3</v>
+      </c>
+      <c r="AR79" s="2">
+        <f t="shared" si="17"/>
+        <v>74</v>
+      </c>
+      <c r="AS79" s="4">
+        <v>1.6461135597478391E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C80" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>75</v>
       </c>
       <c r="D80" s="3">
         <v>5.6897839517101216</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="I80" s="3">
         <v>3.928758800069212</v>
       </c>
       <c r="M80" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="N80" s="3">
         <v>6.6625233332383731</v>
       </c>
       <c r="S80" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>75</v>
       </c>
       <c r="T80" s="3">
         <v>652.16835366899011</v>
       </c>
       <c r="X80" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>75</v>
       </c>
       <c r="Y80" s="3">
         <v>635.472228207032</v>
       </c>
       <c r="AC80" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
       <c r="AD80" s="3">
         <v>595.21362665256879</v>
       </c>
-    </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH80" s="2">
+        <f t="shared" si="15"/>
+        <v>75</v>
+      </c>
+      <c r="AI80" s="4">
+        <v>1.7711836126823499E-3</v>
+      </c>
+      <c r="AM80" s="2">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="AN80" s="4">
+        <v>1.657921591968475E-3</v>
+      </c>
+      <c r="AR80" s="2">
+        <f t="shared" si="17"/>
+        <v>75</v>
+      </c>
+      <c r="AS80" s="4">
+        <v>1.5697536113842619E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C81" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>76</v>
       </c>
       <c r="D81" s="3">
         <v>4.5872443654936728</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>76</v>
       </c>
       <c r="I81" s="3">
         <v>5.0874123733799053</v>
       </c>
       <c r="M81" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>76</v>
       </c>
       <c r="N81" s="3">
         <v>4.8856339323177993</v>
       </c>
       <c r="S81" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>76</v>
       </c>
       <c r="T81" s="3">
         <v>618.52954085228725</v>
       </c>
       <c r="X81" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>76</v>
       </c>
       <c r="Y81" s="3">
         <v>719.31241632376975</v>
       </c>
       <c r="AC81" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>76</v>
       </c>
       <c r="AD81" s="3">
         <v>693.94877876519138</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH81" s="2">
+        <f t="shared" si="15"/>
+        <v>76</v>
+      </c>
+      <c r="AI81" s="4">
+        <v>1.379718671901544E-3</v>
+      </c>
+      <c r="AM81" s="2">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="AN81" s="4">
+        <v>1.4706588039731269E-3</v>
+      </c>
+      <c r="AR81" s="2">
+        <f t="shared" si="17"/>
+        <v>76</v>
+      </c>
+      <c r="AS81" s="4">
+        <v>1.380799529405995E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C82" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>77</v>
       </c>
       <c r="D82" s="3">
         <v>6.2720160408937202</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="I82" s="3">
         <v>5.7103830005884433</v>
       </c>
       <c r="M82" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>77</v>
       </c>
       <c r="N82" s="3">
         <v>5.3585795057795336</v>
       </c>
       <c r="S82" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>77</v>
       </c>
       <c r="T82" s="3">
         <v>594.09925124776078</v>
       </c>
       <c r="X82" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>77</v>
       </c>
       <c r="Y82" s="3">
         <v>708.17622514001482</v>
       </c>
       <c r="AC82" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>77</v>
       </c>
       <c r="AD82" s="3">
         <v>619.53063816817064</v>
       </c>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH82" s="2">
+        <f t="shared" si="15"/>
+        <v>77</v>
+      </c>
+      <c r="AI82" s="4">
+        <v>1.4478102170278489E-3</v>
+      </c>
+      <c r="AM82" s="2">
+        <f t="shared" si="16"/>
+        <v>77</v>
+      </c>
+      <c r="AN82" s="4">
+        <v>1.3694073054336771E-3</v>
+      </c>
+      <c r="AR82" s="2">
+        <f t="shared" si="17"/>
+        <v>77</v>
+      </c>
+      <c r="AS82" s="4">
+        <v>1.6122086612046819E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C83" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>78</v>
       </c>
       <c r="D83" s="3">
         <v>4.9529563045701526</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="I83" s="3">
         <v>5.3970792226947992</v>
       </c>
       <c r="M83" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>78</v>
       </c>
       <c r="N83" s="3">
         <v>7.5514349654486059</v>
       </c>
       <c r="S83" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>78</v>
       </c>
       <c r="T83" s="3">
         <v>760.8498644130749</v>
       </c>
       <c r="X83" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>78</v>
       </c>
       <c r="Y83" s="3">
         <v>629.08507819941201</v>
       </c>
       <c r="AC83" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>78</v>
       </c>
       <c r="AD83" s="3">
         <v>745.39912637634677</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH83" s="2">
+        <f t="shared" si="15"/>
+        <v>78</v>
+      </c>
+      <c r="AI83" s="4">
+        <v>1.5747697110574299E-3</v>
+      </c>
+      <c r="AM83" s="2">
+        <f t="shared" si="16"/>
+        <v>78</v>
+      </c>
+      <c r="AN83" s="4">
+        <v>1.6171843164588149E-3</v>
+      </c>
+      <c r="AR83" s="2">
+        <f t="shared" si="17"/>
+        <v>78</v>
+      </c>
+      <c r="AS83" s="4">
+        <v>1.5069407750105449E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C84" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>79</v>
       </c>
       <c r="D84" s="3">
         <v>5.0538316653617139</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>79</v>
       </c>
       <c r="I84" s="3">
         <v>4.4021207537238238</v>
       </c>
       <c r="M84" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>79</v>
       </c>
       <c r="N84" s="3">
         <v>5.7859521853628726</v>
       </c>
       <c r="S84" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>79</v>
       </c>
       <c r="T84" s="3">
         <v>622.00585790756941</v>
       </c>
       <c r="X84" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>79</v>
       </c>
       <c r="Y84" s="3">
         <v>582.0092749647572</v>
       </c>
       <c r="AC84" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>79</v>
       </c>
       <c r="AD84" s="3">
         <v>664.9532364174944</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH84" s="2">
+        <f t="shared" si="15"/>
+        <v>79</v>
+      </c>
+      <c r="AI84" s="4">
+        <v>1.78088581615465E-3</v>
+      </c>
+      <c r="AM84" s="2">
+        <f t="shared" si="16"/>
+        <v>79</v>
+      </c>
+      <c r="AN84" s="4">
+        <v>1.4666621976301441E-3</v>
+      </c>
+      <c r="AR84" s="2">
+        <f t="shared" si="17"/>
+        <v>79</v>
+      </c>
+      <c r="AS84" s="4">
+        <v>1.7192095389181939E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C85" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="D85" s="3">
         <v>3.2286913870984342</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="I85" s="3">
         <v>4.6848000626827853</v>
       </c>
       <c r="M85" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="N85" s="3">
         <v>5.6893865544646083</v>
       </c>
       <c r="S85" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="T85" s="3">
         <v>603.75402860326813</v>
       </c>
       <c r="X85" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="Y85" s="3">
         <v>756.39474368499168</v>
       </c>
       <c r="AC85" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>80</v>
       </c>
       <c r="AD85" s="3">
         <v>727.83003405150953</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH85" s="2">
+        <f t="shared" si="15"/>
+        <v>80</v>
+      </c>
+      <c r="AI85" s="4">
+        <v>1.2072065426698381E-3</v>
+      </c>
+      <c r="AM85" s="2">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="AN85" s="4">
+        <v>1.4152409064611411E-3</v>
+      </c>
+      <c r="AR85" s="2">
+        <f t="shared" si="17"/>
+        <v>80</v>
+      </c>
+      <c r="AS85" s="4">
+        <v>1.3486478390292559E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C86" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>81</v>
       </c>
       <c r="D86" s="3">
         <v>4.5772573030179053</v>
       </c>
       <c r="H86" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="I86" s="3">
         <v>5.4192142729354726</v>
       </c>
       <c r="M86" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>81</v>
       </c>
       <c r="N86" s="3">
         <v>6.0144098733506004</v>
       </c>
       <c r="S86" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>81</v>
       </c>
       <c r="T86" s="3">
         <v>652.60163547262471</v>
       </c>
       <c r="X86" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>81</v>
       </c>
       <c r="Y86" s="3">
         <v>833.48941193279109</v>
       </c>
       <c r="AC86" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>81</v>
       </c>
       <c r="AD86" s="3">
         <v>706.24545924296035</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH86" s="2">
+        <f t="shared" si="15"/>
+        <v>81</v>
+      </c>
+      <c r="AI86" s="4">
+        <v>1.373739876058962E-3</v>
+      </c>
+      <c r="AM86" s="2">
+        <f t="shared" si="16"/>
+        <v>81</v>
+      </c>
+      <c r="AN86" s="4">
+        <v>1.642915448280614E-3</v>
+      </c>
+      <c r="AR86" s="2">
+        <f t="shared" si="17"/>
+        <v>81</v>
+      </c>
+      <c r="AS86" s="4">
+        <v>1.2598429632113891E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C87" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>82</v>
       </c>
       <c r="D87" s="3">
         <v>5.1219155894667781</v>
       </c>
       <c r="H87" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>82</v>
       </c>
       <c r="I87" s="3">
         <v>5.8738780277982938</v>
       </c>
       <c r="M87" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>82</v>
       </c>
       <c r="N87" s="3">
         <v>3.5674662478110091</v>
       </c>
       <c r="S87" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>82</v>
       </c>
       <c r="T87" s="3">
         <v>673.7758143787853</v>
       </c>
       <c r="X87" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>82</v>
       </c>
       <c r="Y87" s="3">
         <v>750.59785485007717</v>
       </c>
       <c r="AC87" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>82</v>
       </c>
       <c r="AD87" s="3">
         <v>637.22879967234269</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH87" s="2">
+        <f t="shared" si="15"/>
+        <v>82</v>
+      </c>
+      <c r="AI87" s="4">
+        <v>1.342877927040543E-3</v>
+      </c>
+      <c r="AM87" s="2">
+        <f t="shared" si="16"/>
+        <v>82</v>
+      </c>
+      <c r="AN87" s="4">
+        <v>1.228993488268684E-3</v>
+      </c>
+      <c r="AR87" s="2">
+        <f t="shared" si="17"/>
+        <v>82</v>
+      </c>
+      <c r="AS87" s="4">
+        <v>1.467177392457305E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C88" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>83</v>
       </c>
       <c r="D88" s="3">
         <v>5.7594159406687746</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>83</v>
       </c>
       <c r="I88" s="3">
         <v>5.0186816569227117</v>
       </c>
       <c r="M88" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>83</v>
       </c>
       <c r="N88" s="3">
         <v>4.0575501078963478</v>
       </c>
       <c r="S88" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>83</v>
       </c>
       <c r="T88" s="3">
         <v>553.83456071169985</v>
       </c>
       <c r="X88" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>83</v>
       </c>
       <c r="Y88" s="3">
         <v>640.62524369451648</v>
       </c>
       <c r="AC88" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>83</v>
       </c>
       <c r="AD88" s="3">
         <v>564.86507819941232</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH88" s="2">
+        <f t="shared" si="15"/>
+        <v>83</v>
+      </c>
+      <c r="AI88" s="4">
+        <v>1.5174454106367549E-3</v>
+      </c>
+      <c r="AM88" s="2">
+        <f t="shared" si="16"/>
+        <v>83</v>
+      </c>
+      <c r="AN88" s="4">
+        <v>1.664726560940064E-3</v>
+      </c>
+      <c r="AR88" s="2">
+        <f t="shared" si="17"/>
+        <v>83</v>
+      </c>
+      <c r="AS88" s="4">
+        <v>1.435968404527369E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C89" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>84</v>
       </c>
       <c r="D89" s="3">
         <v>5.6648647669004548</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
       <c r="I89" s="3">
         <v>5.2674545448868288</v>
       </c>
       <c r="M89" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>84</v>
       </c>
       <c r="N89" s="3">
         <v>3.4358602655936128</v>
       </c>
       <c r="S89" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>84</v>
       </c>
       <c r="T89" s="3">
         <v>630.71772893092464</v>
       </c>
       <c r="X89" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>84</v>
       </c>
       <c r="Y89" s="3">
         <v>610.89733802910712</v>
       </c>
       <c r="AC89" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>84</v>
       </c>
       <c r="AD89" s="3">
         <v>598.86244851792503</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH89" s="2">
+        <f t="shared" si="15"/>
+        <v>84</v>
+      </c>
+      <c r="AI89" s="4">
+        <v>1.538793655364446E-3</v>
+      </c>
+      <c r="AM89" s="2">
+        <f t="shared" si="16"/>
+        <v>84</v>
+      </c>
+      <c r="AN89" s="4">
+        <v>1.581740163568098E-3</v>
+      </c>
+      <c r="AR89" s="2">
+        <f t="shared" si="17"/>
+        <v>84</v>
+      </c>
+      <c r="AS89" s="4">
+        <v>1.4073347052869409E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C90" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>85</v>
       </c>
       <c r="D90" s="3">
         <v>3.5175573933222708</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
       <c r="I90" s="3">
         <v>5.3385881699115449</v>
       </c>
       <c r="M90" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>85</v>
       </c>
       <c r="N90" s="3">
         <v>6.8890696927498398</v>
       </c>
       <c r="S90" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>85</v>
       </c>
       <c r="T90" s="3">
         <v>625.07132572293881</v>
       </c>
       <c r="X90" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>85</v>
       </c>
       <c r="Y90" s="3">
         <v>687.39506686478364</v>
       </c>
       <c r="AC90" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>85</v>
       </c>
       <c r="AD90" s="3">
         <v>634.57525712462291</v>
       </c>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH90" s="2">
+        <f t="shared" si="15"/>
+        <v>85</v>
+      </c>
+      <c r="AI90" s="4">
+        <v>1.220345962087374E-3</v>
+      </c>
+      <c r="AM90" s="2">
+        <f t="shared" si="16"/>
+        <v>85</v>
+      </c>
+      <c r="AN90" s="4">
+        <v>1.3763611761820329E-3</v>
+      </c>
+      <c r="AR90" s="2">
+        <f t="shared" si="17"/>
+        <v>85</v>
+      </c>
+      <c r="AS90" s="4">
+        <v>1.383491041202524E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C91" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>86</v>
       </c>
       <c r="D91" s="3">
         <v>3.7003168641296091</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>86</v>
       </c>
       <c r="I91" s="3">
         <v>3.374042391268675</v>
       </c>
       <c r="M91" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>86</v>
       </c>
       <c r="N91" s="3">
         <v>4.3285777003723878</v>
       </c>
       <c r="S91" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>86</v>
       </c>
       <c r="T91" s="3">
         <v>676.00128305139538</v>
       </c>
       <c r="X91" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>86</v>
       </c>
       <c r="Y91" s="3">
         <v>600.6193675467664</v>
       </c>
       <c r="AC91" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>86</v>
       </c>
       <c r="AD91" s="3">
         <v>705.25006462643273</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH91" s="2">
+        <f t="shared" si="15"/>
+        <v>86</v>
+      </c>
+      <c r="AI91" s="4">
+        <v>1.390893411975284E-3</v>
+      </c>
+      <c r="AM91" s="2">
+        <f t="shared" si="16"/>
+        <v>86</v>
+      </c>
+      <c r="AN91" s="4">
+        <v>1.345023084353946E-3</v>
+      </c>
+      <c r="AR91" s="2">
+        <f t="shared" si="17"/>
+        <v>86</v>
+      </c>
+      <c r="AS91" s="4">
+        <v>1.392071921430361E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C92" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>87</v>
       </c>
       <c r="D92" s="3">
         <v>6.3149058901603503</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>87</v>
       </c>
       <c r="I92" s="3">
         <v>5.4702627440658977</v>
       </c>
       <c r="M92" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>87</v>
       </c>
       <c r="N92" s="3">
         <v>3.2288387307217392</v>
       </c>
       <c r="S92" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>87</v>
       </c>
       <c r="T92" s="3">
         <v>575.44413299615132</v>
       </c>
       <c r="X92" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>87</v>
       </c>
       <c r="Y92" s="3">
         <v>667.10563350097084</v>
       </c>
       <c r="AC92" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>87</v>
       </c>
       <c r="AD92" s="3">
         <v>696.28970420428925</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH92" s="2">
+        <f t="shared" si="15"/>
+        <v>87</v>
+      </c>
+      <c r="AI92" s="4">
+        <v>1.4612486082616479E-3</v>
+      </c>
+      <c r="AM92" s="2">
+        <f t="shared" si="16"/>
+        <v>87</v>
+      </c>
+      <c r="AN92" s="4">
+        <v>1.690567296386281E-3</v>
+      </c>
+      <c r="AR92" s="2">
+        <f t="shared" si="17"/>
+        <v>87</v>
+      </c>
+      <c r="AS92" s="4">
+        <v>1.329046583742209E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C93" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>88</v>
       </c>
       <c r="D93" s="3">
         <v>5.2197413068783272</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>88</v>
       </c>
       <c r="I93" s="3">
         <v>4.9606698033092416</v>
       </c>
       <c r="M93" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>88</v>
       </c>
       <c r="N93" s="3">
         <v>5.3706225319906506</v>
       </c>
       <c r="S93" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>88</v>
       </c>
       <c r="T93" s="3">
         <v>681.93637377604978</v>
       </c>
       <c r="X93" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>88</v>
       </c>
       <c r="Y93" s="3">
         <v>607.92407689450147</v>
       </c>
       <c r="AC93" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>88</v>
       </c>
       <c r="AD93" s="3">
         <v>642.07998118832541</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH93" s="2">
+        <f t="shared" si="15"/>
+        <v>88</v>
+      </c>
+      <c r="AI93" s="4">
+        <v>1.6832412150180681E-3</v>
+      </c>
+      <c r="AM93" s="2">
+        <f t="shared" si="16"/>
+        <v>88</v>
+      </c>
+      <c r="AN93" s="4">
+        <v>1.5758580001709859E-3</v>
+      </c>
+      <c r="AR93" s="2">
+        <f t="shared" si="17"/>
+        <v>88</v>
+      </c>
+      <c r="AS93" s="4">
+        <v>1.405479951909986E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C94" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>89</v>
       </c>
       <c r="D94" s="3">
         <v>4.706693150072069</v>
       </c>
       <c r="H94" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>89</v>
       </c>
       <c r="I94" s="3">
         <v>4.0577478305103876</v>
       </c>
       <c r="M94" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>89</v>
       </c>
       <c r="N94" s="3">
         <v>5.5688218891444876</v>
       </c>
       <c r="S94" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>89</v>
       </c>
       <c r="T94" s="3">
         <v>611.6792898235982</v>
       </c>
       <c r="X94" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>89</v>
       </c>
       <c r="Y94" s="3">
         <v>558.82613927305897</v>
       </c>
       <c r="AC94" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>89</v>
       </c>
       <c r="AD94" s="3">
         <v>574.08363241513234</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH94" s="2">
+        <f t="shared" si="15"/>
+        <v>89</v>
+      </c>
+      <c r="AI94" s="4">
+        <v>1.5547361058480371E-3</v>
+      </c>
+      <c r="AM94" s="2">
+        <f t="shared" si="16"/>
+        <v>89</v>
+      </c>
+      <c r="AN94" s="4">
+        <v>1.382657924517563E-3</v>
+      </c>
+      <c r="AR94" s="2">
+        <f t="shared" si="17"/>
+        <v>89</v>
+      </c>
+      <c r="AS94" s="4">
+        <v>1.474229332356515E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C95" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="D95" s="3">
         <v>6.6861239282477696</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="I95" s="3">
         <v>4.603672187064312</v>
       </c>
       <c r="M95" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="N95" s="3">
         <v>5.2511038676820156</v>
       </c>
       <c r="S95" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>90</v>
       </c>
       <c r="T95" s="3">
         <v>673.72245404236594</v>
       </c>
       <c r="X95" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>90</v>
       </c>
       <c r="Y95" s="3">
         <v>619.8803623271225</v>
       </c>
       <c r="AC95" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>90</v>
       </c>
       <c r="AD95" s="3">
         <v>633.42607550386617</v>
       </c>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH95" s="2">
+        <f t="shared" si="15"/>
+        <v>90</v>
+      </c>
+      <c r="AI95" s="4">
+        <v>1.335382552483756E-3</v>
+      </c>
+      <c r="AM95" s="2">
+        <f t="shared" si="16"/>
+        <v>90</v>
+      </c>
+      <c r="AN95" s="4">
+        <v>1.7284905855954071E-3</v>
+      </c>
+      <c r="AR95" s="2">
+        <f t="shared" si="17"/>
+        <v>90</v>
+      </c>
+      <c r="AS95" s="4">
+        <v>1.3406012411221429E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C96" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>91</v>
       </c>
       <c r="D96" s="3">
         <v>4.5293325930426596</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="I96" s="3">
         <v>5.9849386237768956</v>
       </c>
       <c r="M96" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>91</v>
       </c>
       <c r="N96" s="3">
         <v>5.3777306082669796</v>
       </c>
       <c r="S96" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>91</v>
       </c>
       <c r="T96" s="3">
         <v>740.49670028955586</v>
       </c>
       <c r="X96" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>91</v>
       </c>
       <c r="Y96" s="3">
         <v>764.03307239874937</v>
       </c>
       <c r="AC96" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>91</v>
       </c>
       <c r="AD96" s="3">
         <v>655.94014392120914</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH96" s="2">
+        <f t="shared" si="15"/>
+        <v>91</v>
+      </c>
+      <c r="AI96" s="4">
+        <v>1.27791286174099E-3</v>
+      </c>
+      <c r="AM96" s="2">
+        <f t="shared" si="16"/>
+        <v>91</v>
+      </c>
+      <c r="AN96" s="4">
+        <v>1.6921255145919041E-3</v>
+      </c>
+      <c r="AR96" s="2">
+        <f t="shared" si="17"/>
+        <v>91</v>
+      </c>
+      <c r="AS96" s="4">
+        <v>1.3969785052334041E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C97" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>92</v>
       </c>
       <c r="D97" s="3">
         <v>5.0222715655474728</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>92</v>
       </c>
       <c r="I97" s="3">
         <v>5.7929406113710771</v>
       </c>
       <c r="M97" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>92</v>
       </c>
       <c r="N97" s="3">
         <v>6.441558856941568</v>
       </c>
       <c r="S97" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>92</v>
       </c>
       <c r="T97" s="3">
         <v>681.68408822913</v>
       </c>
       <c r="X97" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>92</v>
       </c>
       <c r="Y97" s="3">
         <v>686.43066021830998</v>
       </c>
       <c r="AC97" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>92</v>
       </c>
       <c r="AD97" s="3">
         <v>565.92207042709549</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH97" s="2">
+        <f t="shared" si="15"/>
+        <v>92</v>
+      </c>
+      <c r="AI97" s="4">
+        <v>1.7499371582258259E-3</v>
+      </c>
+      <c r="AM97" s="2">
+        <f t="shared" si="16"/>
+        <v>92</v>
+      </c>
+      <c r="AN97" s="4">
+        <v>1.4788780488975211E-3</v>
+      </c>
+      <c r="AR97" s="2">
+        <f t="shared" si="17"/>
+        <v>92</v>
+      </c>
+      <c r="AS97" s="4">
+        <v>1.5962703278838109E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C98" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>93</v>
       </c>
       <c r="D98" s="3">
         <v>4.157640823256723</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="I98" s="3">
         <v>4.0223486251798519</v>
       </c>
       <c r="M98" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>93</v>
       </c>
       <c r="N98" s="3">
         <v>5.2633984705013397</v>
       </c>
       <c r="S98" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>93</v>
       </c>
       <c r="T98" s="3">
         <v>627.22640349373194</v>
       </c>
       <c r="X98" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>93</v>
       </c>
       <c r="Y98" s="3">
         <v>719.85153855678652</v>
       </c>
       <c r="AC98" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>93</v>
       </c>
       <c r="AD98" s="3">
         <v>628.42863051015263</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH98" s="2">
+        <f t="shared" si="15"/>
+        <v>93</v>
+      </c>
+      <c r="AI98" s="4">
+        <v>1.4999963381559271E-3</v>
+      </c>
+      <c r="AM98" s="2">
+        <f t="shared" si="16"/>
+        <v>93</v>
+      </c>
+      <c r="AN98" s="4">
+        <v>1.3238209476950319E-3</v>
+      </c>
+      <c r="AR98" s="2">
+        <f t="shared" si="17"/>
+        <v>93</v>
+      </c>
+      <c r="AS98" s="4">
+        <v>1.549603362821552E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C99" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>94</v>
       </c>
       <c r="D99" s="3">
         <v>4.0528114438091478</v>
       </c>
       <c r="H99" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>94</v>
       </c>
       <c r="I99" s="3">
         <v>5.1541449260209351</v>
       </c>
       <c r="M99" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>94</v>
       </c>
       <c r="N99" s="3">
         <v>4.9633531327318039</v>
       </c>
       <c r="S99" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>94</v>
       </c>
       <c r="T99" s="3">
         <v>627.84741132319812</v>
       </c>
       <c r="X99" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>94</v>
       </c>
       <c r="Y99" s="3">
         <v>640.3230370613777</v>
       </c>
       <c r="AC99" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>94</v>
       </c>
       <c r="AD99" s="3">
         <v>735.03061635615404</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH99" s="2">
+        <f t="shared" si="15"/>
+        <v>94</v>
+      </c>
+      <c r="AI99" s="4">
+        <v>1.591730109157935E-3</v>
+      </c>
+      <c r="AM99" s="2">
+        <f t="shared" si="16"/>
+        <v>94</v>
+      </c>
+      <c r="AN99" s="4">
+        <v>1.382587636692872E-3</v>
+      </c>
+      <c r="AR99" s="2">
+        <f t="shared" si="17"/>
+        <v>94</v>
+      </c>
+      <c r="AS99" s="4">
+        <v>1.611169333909713E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C100" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>95</v>
       </c>
       <c r="D100" s="3">
         <v>3.4339323989575208</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>95</v>
       </c>
       <c r="I100" s="3">
         <v>5.0881439371497024</v>
       </c>
       <c r="M100" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>95</v>
       </c>
       <c r="N100" s="3">
         <v>4.3520752512095902</v>
       </c>
       <c r="S100" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>95</v>
       </c>
       <c r="T100" s="3">
         <v>693.8653611841346</v>
       </c>
       <c r="X100" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>95</v>
       </c>
       <c r="Y100" s="3">
         <v>582.20439707395053</v>
       </c>
       <c r="AC100" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>95</v>
       </c>
       <c r="AD100" s="3">
         <v>702.47361684192379</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH100" s="2">
+        <f t="shared" si="15"/>
+        <v>95</v>
+      </c>
+      <c r="AI100" s="4">
+        <v>1.520270855041842E-3</v>
+      </c>
+      <c r="AM100" s="2">
+        <f t="shared" si="16"/>
+        <v>95</v>
+      </c>
+      <c r="AN100" s="4">
+        <v>1.4374648726207251E-3</v>
+      </c>
+      <c r="AR100" s="2">
+        <f t="shared" si="17"/>
+        <v>95</v>
+      </c>
+      <c r="AS100" s="4">
+        <v>1.4717329683952001E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C101" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>96</v>
       </c>
       <c r="D101" s="3">
         <v>4.7897385642301096</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
       <c r="I101" s="3">
         <v>5.9720672187608814</v>
       </c>
       <c r="M101" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>96</v>
       </c>
       <c r="N101" s="3">
         <v>4.9330548867308153</v>
       </c>
       <c r="S101" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="T101" s="3">
         <v>673.25349368499178</v>
       </c>
       <c r="X101" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>96</v>
       </c>
       <c r="Y101" s="3">
         <v>657.43274374214093</v>
       </c>
       <c r="AC101" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>96</v>
       </c>
       <c r="AD101" s="3">
         <v>584.02369013601469</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH101" s="2">
+        <f t="shared" si="15"/>
+        <v>96</v>
+      </c>
+      <c r="AI101" s="4">
+        <v>1.5640959924612409E-3</v>
+      </c>
+      <c r="AM101" s="2">
+        <f t="shared" si="16"/>
+        <v>96</v>
+      </c>
+      <c r="AN101" s="4">
+        <v>1.319814308514733E-3</v>
+      </c>
+      <c r="AR101" s="2">
+        <f t="shared" si="17"/>
+        <v>96</v>
+      </c>
+      <c r="AS101" s="4">
+        <v>1.609677871990772E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C102" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>97</v>
       </c>
       <c r="D102" s="3">
         <v>6.8034802107626833</v>
       </c>
       <c r="H102" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>97</v>
       </c>
       <c r="I102" s="3">
         <v>4.7298160173104513</v>
       </c>
       <c r="M102" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>97</v>
       </c>
       <c r="N102" s="3">
         <v>4.4397647802758478</v>
       </c>
       <c r="S102" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>97</v>
       </c>
       <c r="T102" s="3">
         <v>659.74651303005965</v>
       </c>
       <c r="X102" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>97</v>
       </c>
       <c r="Y102" s="3">
         <v>582.6527988913009</v>
       </c>
       <c r="AC102" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>97</v>
       </c>
       <c r="AD102" s="3">
         <v>631.75472358745674</v>
       </c>
-    </row>
-    <row r="103" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH102" s="2">
+        <f t="shared" si="15"/>
+        <v>97</v>
+      </c>
+      <c r="AI102" s="4">
+        <v>1.5111118308163991E-3</v>
+      </c>
+      <c r="AM102" s="2">
+        <f t="shared" si="16"/>
+        <v>97</v>
+      </c>
+      <c r="AN102" s="4">
+        <v>1.670702845194246E-3</v>
+      </c>
+      <c r="AR102" s="2">
+        <f t="shared" si="17"/>
+        <v>97</v>
+      </c>
+      <c r="AS102" s="4">
+        <v>1.4132052140397461E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C103" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>98</v>
       </c>
       <c r="D103" s="3">
         <v>4.375754500040129</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>98</v>
       </c>
       <c r="I103" s="3">
         <v>3.6768485329330232</v>
       </c>
       <c r="M103" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
       <c r="N103" s="3">
         <v>4.3181514518773838</v>
       </c>
       <c r="S103" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>98</v>
       </c>
       <c r="T103" s="3">
         <v>589.88216615232136</v>
       </c>
       <c r="X103" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>98</v>
       </c>
       <c r="Y103" s="3">
         <v>644.03757277022032</v>
       </c>
       <c r="AC103" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>98</v>
       </c>
       <c r="AD103" s="3">
         <v>673.91372099668456</v>
       </c>
-    </row>
-    <row r="104" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH103" s="2">
+        <f t="shared" si="15"/>
+        <v>98</v>
+      </c>
+      <c r="AI103" s="4">
+        <v>1.42051564894558E-3</v>
+      </c>
+      <c r="AM103" s="2">
+        <f t="shared" si="16"/>
+        <v>98</v>
+      </c>
+      <c r="AN103" s="4">
+        <v>1.496899127389648E-3</v>
+      </c>
+      <c r="AR103" s="2">
+        <f t="shared" si="17"/>
+        <v>98</v>
+      </c>
+      <c r="AS103" s="4">
+        <v>1.4443891982441569E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C104" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>99</v>
       </c>
       <c r="D104" s="3">
         <v>5.3366260062206727</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>99</v>
       </c>
       <c r="I104" s="3">
         <v>5.0110253722420151</v>
       </c>
       <c r="M104" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>99</v>
       </c>
       <c r="N104" s="3">
         <v>4.8605942985453083</v>
       </c>
       <c r="S104" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>99</v>
       </c>
       <c r="T104" s="3">
         <v>626.02229445269882</v>
       </c>
       <c r="X104" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>99</v>
       </c>
       <c r="Y104" s="3">
         <v>635.62661113651052</v>
       </c>
       <c r="AC104" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="AD104" s="3">
         <v>607.50250352421142</v>
       </c>
-    </row>
-    <row r="105" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH104" s="2">
+        <f t="shared" si="15"/>
+        <v>99</v>
+      </c>
+      <c r="AI104" s="4">
+        <v>1.790311364887599E-3</v>
+      </c>
+      <c r="AM104" s="2">
+        <f t="shared" si="16"/>
+        <v>99</v>
+      </c>
+      <c r="AN104" s="4">
+        <v>1.4630490481177441E-3</v>
+      </c>
+      <c r="AR104" s="2">
+        <f t="shared" si="17"/>
+        <v>99</v>
+      </c>
+      <c r="AS104" s="4">
+        <v>1.281753590810369E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C105" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="D105" s="3">
         <v>5.8229086614562773</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="I105" s="3">
         <v>4.1644734157613721</v>
       </c>
       <c r="M105" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="N105" s="3">
         <v>4.3216929362739904</v>
       </c>
       <c r="S105" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="T105" s="3">
         <v>625.60311502266848</v>
       </c>
       <c r="X105" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="Y105" s="3">
         <v>747.4594611288901</v>
       </c>
       <c r="AC105" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="AD105" s="3">
         <v>720.46328075589508</v>
       </c>
-    </row>
-    <row r="107" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH105" s="2">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="AI105" s="4">
+        <v>1.529853968645379E-3</v>
+      </c>
+      <c r="AM105" s="2">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="AN105" s="4">
+        <v>1.411505862692496E-3</v>
+      </c>
+      <c r="AR105" s="2">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="AS105" s="4">
+        <v>1.887638248568541E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C107" s="2" t="s">
         <v>1</v>
       </c>
@@ -4908,8 +7041,29 @@
         <f>AVERAGE(AD6:AD105)</f>
         <v>647.57430166542758</v>
       </c>
-    </row>
-    <row r="108" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AH107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI107" s="4">
+        <f>AVERAGE(AI6:AI105)</f>
+        <v>1.4733209926424157E-3</v>
+      </c>
+      <c r="AM107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN107" s="4">
+        <f>AVERAGE(AN6:AN105)</f>
+        <v>1.4884746726357622E-3</v>
+      </c>
+      <c r="AR107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS107" s="4">
+        <f>AVERAGE(AS6:AS105)</f>
+        <v>1.4658871220946171E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="3:45" x14ac:dyDescent="0.25">
       <c r="C108" s="2" t="s">
         <v>2</v>
       </c>
@@ -4951,6 +7105,27 @@
       <c r="AD108" s="3">
         <f>_xlfn.STDEV.S(AD6:AD105)</f>
         <v>59.216547487236269</v>
+      </c>
+      <c r="AH108" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI108" s="4">
+        <f>_xlfn.STDEV.S(AI6:AI105)</f>
+        <v>1.3123441094069685E-4</v>
+      </c>
+      <c r="AM108" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN108" s="4">
+        <f>_xlfn.STDEV.S(AN6:AN105)</f>
+        <v>1.3573674796949791E-4</v>
+      </c>
+      <c r="AR108" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS108" s="4">
+        <f>_xlfn.STDEV.S(AS6:AS105)</f>
+        <v>1.4498251358058121E-4</v>
       </c>
     </row>
   </sheetData>
@@ -4963,8 +7138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:O108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U66" sqref="U66"/>
+    <sheetView topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T98" sqref="T98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
